--- a/BackTest/2019-10-16 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-16 BackTest ANKR.xlsx
@@ -2548,7 +2548,7 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="K46" t="n">
-        <v>-20.00000000000036</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>2.687000000000001</v>
@@ -2599,7 +2599,7 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L47" t="n">
         <v>2.688000000000001</v>
@@ -2650,7 +2650,7 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L48" t="n">
         <v>2.689000000000001</v>
@@ -2701,7 +2701,7 @@
         <v>0.08000000000000052</v>
       </c>
       <c r="K49" t="n">
-        <v>-14.28571428571447</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>2.689000000000001</v>
@@ -2752,7 +2752,7 @@
         <v>0.0900000000000003</v>
       </c>
       <c r="K50" t="n">
-        <v>-24.99999999999986</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L50" t="n">
         <v>2.688</v>
@@ -2803,7 +2803,7 @@
         <v>0.1000000000000005</v>
       </c>
       <c r="K51" t="n">
-        <v>-33.33333333333333</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L51" t="n">
         <v>2.686</v>
@@ -2854,7 +2854,7 @@
         <v>0.1100000000000008</v>
       </c>
       <c r="K52" t="n">
-        <v>-19.99999999999982</v>
+        <v>-11.11111111111078</v>
       </c>
       <c r="L52" t="n">
         <v>2.685</v>
@@ -2905,7 +2905,7 @@
         <v>0.1300000000000008</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="L53" t="n">
         <v>2.686</v>
@@ -2956,7 +2956,7 @@
         <v>0.140000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>-7.692307692307796</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="L54" t="n">
         <v>2.687</v>
@@ -3007,7 +3007,7 @@
         <v>0.160000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>-20</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L55" t="n">
         <v>2.687</v>
@@ -3058,7 +3058,7 @@
         <v>0.180000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>-9.090909090909239</v>
       </c>
       <c r="L56" t="n">
         <v>2.687</v>
@@ -3109,7 +3109,7 @@
         <v>0.2000000000000011</v>
       </c>
       <c r="K57" t="n">
-        <v>11.11111111111106</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L57" t="n">
         <v>2.688</v>
@@ -3160,7 +3160,7 @@
         <v>0.2400000000000011</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.090909090909054</v>
+        <v>-12.49999999999996</v>
       </c>
       <c r="L58" t="n">
         <v>2.685</v>
@@ -3211,7 +3211,7 @@
         <v>0.2400000000000011</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.090909090909054</v>
+        <v>-6.666666666666784</v>
       </c>
       <c r="L59" t="n">
         <v>2.682999999999999</v>
@@ -3262,7 +3262,7 @@
         <v>0.2500000000000009</v>
       </c>
       <c r="K60" t="n">
-        <v>-13.04347826086943</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L60" t="n">
         <v>2.681</v>
@@ -3313,7 +3313,7 @@
         <v>0.2600000000000011</v>
       </c>
       <c r="K61" t="n">
-        <v>-16.6666666666666</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L61" t="n">
         <v>2.678999999999999</v>
@@ -3364,7 +3364,7 @@
         <v>0.2800000000000011</v>
       </c>
       <c r="K62" t="n">
-        <v>-7.692307692307667</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L62" t="n">
         <v>2.677999999999999</v>
@@ -3415,7 +3415,7 @@
         <v>0.2900000000000009</v>
       </c>
       <c r="K63" t="n">
-        <v>-11.111111111111</v>
+        <v>-19.99999999999988</v>
       </c>
       <c r="L63" t="n">
         <v>2.673999999999999</v>
@@ -3466,7 +3466,7 @@
         <v>0.2900000000000009</v>
       </c>
       <c r="K64" t="n">
-        <v>-7.692307692307667</v>
+        <v>-7.692307692307534</v>
       </c>
       <c r="L64" t="n">
         <v>2.670999999999999</v>
@@ -3517,7 +3517,7 @@
         <v>0.3100000000000009</v>
       </c>
       <c r="K65" t="n">
-        <v>3.703703703703777</v>
+        <v>-7.692307692307534</v>
       </c>
       <c r="L65" t="n">
         <v>2.671999999999999</v>
@@ -3568,7 +3568,7 @@
         <v>0.3400000000000012</v>
       </c>
       <c r="K66" t="n">
-        <v>-14.28571428571424</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L66" t="n">
         <v>2.667999999999999</v>
@@ -3619,7 +3619,7 @@
         <v>0.3400000000000012</v>
       </c>
       <c r="K67" t="n">
-        <v>-18.51851851851855</v>
+        <v>-20</v>
       </c>
       <c r="L67" t="n">
         <v>2.661999999999999</v>
@@ -3670,7 +3670,7 @@
         <v>0.3400000000000012</v>
       </c>
       <c r="K68" t="n">
-        <v>-18.51851851851855</v>
+        <v>-20</v>
       </c>
       <c r="L68" t="n">
         <v>2.659999999999999</v>
@@ -3721,7 +3721,7 @@
         <v>0.3500000000000014</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>2.658999999999999</v>
@@ -3772,7 +3772,7 @@
         <v>0.3600000000000017</v>
       </c>
       <c r="K70" t="n">
-        <v>-11.11111111111115</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>2.657999999999999</v>
@@ -3874,7 +3874,7 @@
         <v>0.3900000000000015</v>
       </c>
       <c r="K72" t="n">
-        <v>-7.142857142857132</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>2.658999999999999</v>
@@ -3925,7 +3925,7 @@
         <v>0.4000000000000017</v>
       </c>
       <c r="K73" t="n">
-        <v>-18.51851851851855</v>
+        <v>-9.090909090909239</v>
       </c>
       <c r="L73" t="n">
         <v>2.657999999999999</v>
@@ -3976,7 +3976,7 @@
         <v>0.4200000000000017</v>
       </c>
       <c r="K74" t="n">
-        <v>-21.4285714285714</v>
+        <v>-45.45454545454538</v>
       </c>
       <c r="L74" t="n">
         <v>2.654999999999998</v>
@@ -4027,7 +4027,7 @@
         <v>0.4300000000000019</v>
       </c>
       <c r="K75" t="n">
-        <v>-11.111111111111</v>
+        <v>-11.11111111111078</v>
       </c>
       <c r="L75" t="n">
         <v>2.650999999999999</v>
@@ -4078,7 +4078,7 @@
         <v>0.4300000000000019</v>
       </c>
       <c r="K76" t="n">
-        <v>-19.99999999999986</v>
+        <v>-11.11111111111078</v>
       </c>
       <c r="L76" t="n">
         <v>2.649999999999999</v>
@@ -4129,7 +4129,7 @@
         <v>0.4400000000000022</v>
       </c>
       <c r="K77" t="n">
-        <v>-33.33333333333321</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L77" t="n">
         <v>2.647999999999999</v>
@@ -4180,7 +4180,7 @@
         <v>0.4600000000000022</v>
       </c>
       <c r="K78" t="n">
-        <v>-9.090909090909054</v>
+        <v>-9.090909090909239</v>
       </c>
       <c r="L78" t="n">
         <v>2.647999999999999</v>
@@ -4231,7 +4231,7 @@
         <v>0.4600000000000022</v>
       </c>
       <c r="K79" t="n">
-        <v>-9.090909090909054</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>2.646999999999999</v>
@@ -4282,7 +4282,7 @@
         <v>0.4800000000000022</v>
       </c>
       <c r="K80" t="n">
-        <v>4.347826086956404</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>2.648999999999999</v>
@@ -4333,7 +4333,7 @@
         <v>0.4800000000000022</v>
       </c>
       <c r="K81" t="n">
-        <v>9.090909090909054</v>
+        <v>11.11111111111078</v>
       </c>
       <c r="L81" t="n">
         <v>2.648999999999999</v>
@@ -4384,7 +4384,7 @@
         <v>0.5000000000000022</v>
       </c>
       <c r="K82" t="n">
-        <v>9.090909090909054</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L82" t="n">
         <v>2.651999999999999</v>
@@ -4435,7 +4435,7 @@
         <v>0.510000000000002</v>
       </c>
       <c r="K83" t="n">
-        <v>9.090909090909054</v>
+        <v>55.55555555555567</v>
       </c>
       <c r="L83" t="n">
         <v>2.654999999999999</v>
@@ -4486,7 +4486,7 @@
         <v>0.5200000000000018</v>
       </c>
       <c r="K84" t="n">
-        <v>13.04347826086943</v>
+        <v>55.55555555555544</v>
       </c>
       <c r="L84" t="n">
         <v>2.660999999999999</v>
@@ -4537,7 +4537,7 @@
         <v>0.5200000000000018</v>
       </c>
       <c r="K85" t="n">
-        <v>4.761904761904641</v>
+        <v>55.55555555555544</v>
       </c>
       <c r="L85" t="n">
         <v>2.665999999999999</v>
@@ -4588,7 +4588,7 @@
         <v>0.5300000000000016</v>
       </c>
       <c r="K86" t="n">
-        <v>15.78947368421063</v>
+        <v>55.55555555555621</v>
       </c>
       <c r="L86" t="n">
         <v>2.669999999999999</v>
@@ -4639,7 +4639,7 @@
         <v>0.5300000000000016</v>
       </c>
       <c r="K87" t="n">
-        <v>15.78947368421063</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L87" t="n">
         <v>2.674999999999999</v>
@@ -4690,7 +4690,7 @@
         <v>0.5400000000000014</v>
       </c>
       <c r="K88" t="n">
-        <v>20</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L88" t="n">
         <v>2.678999999999999</v>
@@ -4741,7 +4741,7 @@
         <v>0.5400000000000014</v>
       </c>
       <c r="K89" t="n">
-        <v>15.78947368421043</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L89" t="n">
         <v>2.683</v>
@@ -4792,7 +4792,7 @@
         <v>0.5400000000000014</v>
       </c>
       <c r="K90" t="n">
-        <v>22.22222222222228</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L90" t="n">
         <v>2.685</v>
@@ -4843,7 +4843,7 @@
         <v>0.5900000000000016</v>
       </c>
       <c r="K91" t="n">
-        <v>33.33333333333348</v>
+        <v>55.55555555555621</v>
       </c>
       <c r="L91" t="n">
         <v>2.692</v>
@@ -4894,7 +4894,7 @@
         <v>0.5900000000000016</v>
       </c>
       <c r="K92" t="n">
-        <v>40</v>
+        <v>75.00000000000043</v>
       </c>
       <c r="L92" t="n">
         <v>2.697</v>
@@ -4945,7 +4945,7 @@
         <v>0.6600000000000015</v>
       </c>
       <c r="K93" t="n">
-        <v>61.53846153846164</v>
+        <v>85.71428571428599</v>
       </c>
       <c r="L93" t="n">
         <v>2.71</v>
@@ -4996,7 +4996,7 @@
         <v>0.6700000000000013</v>
       </c>
       <c r="K94" t="n">
-        <v>76.00000000000011</v>
+        <v>86.6666666666669</v>
       </c>
       <c r="L94" t="n">
         <v>2.723</v>
@@ -5047,7 +5047,7 @@
         <v>0.6900000000000013</v>
       </c>
       <c r="K95" t="n">
-        <v>76.92307692307702</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
         <v>2.738</v>
@@ -5098,7 +5098,7 @@
         <v>0.7200000000000015</v>
       </c>
       <c r="K96" t="n">
-        <v>79.31034482758631</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
         <v>2.757</v>
@@ -5149,7 +5149,7 @@
         <v>0.7700000000000014</v>
       </c>
       <c r="K97" t="n">
-        <v>87.87878787878812</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
         <v>2.781</v>
@@ -5200,7 +5200,7 @@
         <v>0.8200000000000012</v>
       </c>
       <c r="K98" t="n">
-        <v>61.11111111111134</v>
+        <v>64.28571428571439</v>
       </c>
       <c r="L98" t="n">
         <v>2.799</v>
@@ -5251,7 +5251,7 @@
         <v>0.8500000000000014</v>
       </c>
       <c r="K99" t="n">
-        <v>48.7179487179488</v>
+        <v>48.38709677419351</v>
       </c>
       <c r="L99" t="n">
         <v>2.814</v>
@@ -5302,7 +5302,7 @@
         <v>0.8500000000000014</v>
       </c>
       <c r="K100" t="n">
-        <v>45.94594594594603</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L100" t="n">
         <v>2.829</v>
@@ -5353,7 +5353,7 @@
         <v>0.8600000000000012</v>
       </c>
       <c r="K101" t="n">
-        <v>42.10526315789488</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>2.838</v>
@@ -5404,7 +5404,7 @@
         <v>0.9500000000000011</v>
       </c>
       <c r="K102" t="n">
-        <v>11.1111111111112</v>
+        <v>-24.13793103448274</v>
       </c>
       <c r="L102" t="n">
         <v>2.838</v>
@@ -5455,7 +5455,7 @@
         <v>1.020000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>25.4901960784314</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L103" t="n">
         <v>2.838</v>
@@ -5506,7 +5506,7 @@
         <v>1.070000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>30.90909090909096</v>
+        <v>5.263157894736854</v>
       </c>
       <c r="L104" t="n">
         <v>2.842</v>
@@ -5557,7 +5557,7 @@
         <v>1.090000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>33.33333333333339</v>
+        <v>2.702702702702651</v>
       </c>
       <c r="L105" t="n">
         <v>2.845999999999999</v>
@@ -5608,7 +5608,7 @@
         <v>1.190000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>45.45454545454548</v>
+        <v>14.28571428571431</v>
       </c>
       <c r="L106" t="n">
         <v>2.856999999999999</v>
@@ -5659,7 +5659,7 @@
         <v>1.340000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>55.55555555555558</v>
+        <v>50</v>
       </c>
       <c r="L107" t="n">
         <v>2.877999999999999</v>
@@ -5710,7 +5710,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>55.5555555555556</v>
+        <v>60.00000000000011</v>
       </c>
       <c r="L108" t="n">
         <v>2.904999999999999</v>
@@ -5761,7 +5761,7 @@
         <v>1.390000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>57.64705882352946</v>
+        <v>62.96296296296306</v>
       </c>
       <c r="L109" t="n">
         <v>2.939</v>
@@ -5812,7 +5812,7 @@
         <v>1.420000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>52.27272727272727</v>
+        <v>57.1428571428571</v>
       </c>
       <c r="L110" t="n">
         <v>2.97</v>
@@ -5863,7 +5863,7 @@
         <v>1.470000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>40.90909090909092</v>
+        <v>69.23076923076921</v>
       </c>
       <c r="L111" t="n">
         <v>2.997</v>
@@ -5914,7 +5914,7 @@
         <v>1.510000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>34.78260869565218</v>
+        <v>51.02040816326529</v>
       </c>
       <c r="L112" t="n">
         <v>3.029</v>
@@ -5965,7 +5965,7 @@
         <v>1.590000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>35.48387096774196</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L113" t="n">
         <v>3.062</v>
@@ -6016,7 +6016,7 @@
         <v>1.630000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>29.1666666666667</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L114" t="n">
         <v>3.086</v>
@@ -6067,7 +6067,7 @@
         <v>1.670000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>30.61224489795921</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L115" t="n">
         <v>3.112</v>
@@ -6118,7 +6118,7 @@
         <v>1.740000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>19.60784313725487</v>
+        <v>-14.99999999999998</v>
       </c>
       <c r="L116" t="n">
         <v>3.121</v>
@@ -6169,7 +6169,7 @@
         <v>1.790000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>19.60784313725491</v>
+        <v>-4.545454545454541</v>
       </c>
       <c r="L117" t="n">
         <v>3.12</v>
@@ -6220,7 +6220,7 @@
         <v>1.820000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>27.99999999999997</v>
+        <v>-6.97674418604656</v>
       </c>
       <c r="L118" t="n">
         <v>3.121</v>
@@ -6271,7 +6271,7 @@
         <v>1.820000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>31.95876288659793</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>3.118</v>
@@ -6322,7 +6322,7 @@
         <v>1.820000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>31.95876288659793</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L120" t="n">
         <v>3.118</v>
@@ -6373,7 +6373,7 @@
         <v>1.850000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>29.29292929292929</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L121" t="n">
         <v>3.12</v>
@@ -6424,7 +6424,7 @@
         <v>1.850000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>42.22222222222219</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L122" t="n">
         <v>3.125999999999999</v>
@@ -6475,7 +6475,7 @@
         <v>1.860000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>38.09523809523806</v>
+        <v>13.04347826086948</v>
       </c>
       <c r="L123" t="n">
         <v>3.124999999999999</v>
@@ -6526,7 +6526,7 @@
         <v>2.000000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>13.97849462365595</v>
+        <v>-45.45454545454548</v>
       </c>
       <c r="L124" t="n">
         <v>3.113999999999999</v>
@@ -6577,7 +6577,7 @@
         <v>2.130000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>23.0769230769231</v>
+        <v>12.82051282051291</v>
       </c>
       <c r="L125" t="n">
         <v>3.111999999999999</v>
@@ -6628,7 +6628,7 @@
         <v>2.190000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>8.000000000000007</v>
+        <v>-15.00000000000005</v>
       </c>
       <c r="L126" t="n">
         <v>3.110999999999999</v>
@@ -6679,7 +6679,7 @@
         <v>2.220000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>-4.545454545454549</v>
+        <v>-15.00000000000005</v>
       </c>
       <c r="L127" t="n">
         <v>3.107999999999999</v>
@@ -6730,7 +6730,7 @@
         <v>2.270000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>-2.222222222222178</v>
       </c>
       <c r="L128" t="n">
         <v>3.106999999999998</v>
@@ -6781,7 +6781,7 @@
         <v>2.330000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>2.127659574468087</v>
+        <v>9.803921568627516</v>
       </c>
       <c r="L129" t="n">
         <v>3.111999999999999</v>
@@ -6832,7 +6832,7 @@
         <v>2.340000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>4.347826086956526</v>
+        <v>14.28571428571426</v>
       </c>
       <c r="L130" t="n">
         <v>3.115999999999999</v>
@@ -6883,7 +6883,7 @@
         <v>2.340000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>10.34482758620688</v>
+        <v>14.28571428571426</v>
       </c>
       <c r="L131" t="n">
         <v>3.122999999999998</v>
@@ -6934,7 +6934,7 @@
         <v>2.380000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>10.34482758620688</v>
+        <v>3.846153846153849</v>
       </c>
       <c r="L132" t="n">
         <v>3.125999999999999</v>
@@ -6985,7 +6985,7 @@
         <v>2.400000000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>3.703703703703679</v>
+        <v>44.99999999999989</v>
       </c>
       <c r="L133" t="n">
         <v>3.129999999999999</v>
@@ -7036,7 +7036,7 @@
         <v>2.400000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>9.09090909090907</v>
+        <v>18.51851851851842</v>
       </c>
       <c r="L134" t="n">
         <v>3.147999999999998</v>
@@ -7087,7 +7087,7 @@
         <v>2.400000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>4.109589041095864</v>
+        <v>52.38095238095222</v>
       </c>
       <c r="L135" t="n">
         <v>3.152999999999998</v>
@@ -7138,7 +7138,7 @@
         <v>2.420000000000001</v>
       </c>
       <c r="K136" t="n">
-        <v>17.64705882352943</v>
+        <v>49.99999999999989</v>
       </c>
       <c r="L136" t="n">
         <v>3.165999999999999</v>
@@ -7189,7 +7189,7 @@
         <v>2.430000000000001</v>
       </c>
       <c r="K137" t="n">
-        <v>12.50000000000002</v>
+        <v>37.49999999999989</v>
       </c>
       <c r="L137" t="n">
         <v>3.176999999999999</v>
@@ -7240,7 +7240,7 @@
         <v>2.450000000000002</v>
       </c>
       <c r="K138" t="n">
-        <v>11.11111111111116</v>
+        <v>16.6666666666666</v>
       </c>
       <c r="L138" t="n">
         <v>3.184999999999999</v>
@@ -7291,7 +7291,7 @@
         <v>2.450000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>11.11111111111116</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L139" t="n">
         <v>3.186999999999999</v>
@@ -7342,7 +7342,7 @@
         <v>2.460000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>12.50000000000002</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L140" t="n">
         <v>3.190999999999999</v>
@@ -7393,7 +7393,7 @@
         <v>2.490000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>12.50000000000002</v>
+        <v>45.45454545454574</v>
       </c>
       <c r="L141" t="n">
         <v>3.191999999999998</v>
@@ -7444,7 +7444,7 @@
         <v>2.500000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>10.76923076923075</v>
+        <v>20</v>
       </c>
       <c r="L142" t="n">
         <v>3.195999999999999</v>
@@ -7495,7 +7495,7 @@
         <v>2.530000000000002</v>
       </c>
       <c r="K143" t="n">
-        <v>13.43283582089556</v>
+        <v>38.46153846153857</v>
       </c>
       <c r="L143" t="n">
         <v>3.200999999999998</v>
@@ -7546,7 +7546,7 @@
         <v>2.530000000000002</v>
       </c>
       <c r="K144" t="n">
-        <v>43.39622641509428</v>
+        <v>38.46153846153857</v>
       </c>
       <c r="L144" t="n">
         <v>3.205999999999998</v>
@@ -7597,7 +7597,7 @@
         <v>2.540000000000002</v>
       </c>
       <c r="K145" t="n">
-        <v>21.95121951219503</v>
+        <v>16.6666666666666</v>
       </c>
       <c r="L145" t="n">
         <v>3.209999999999998</v>
@@ -7648,7 +7648,7 @@
         <v>2.550000000000002</v>
       </c>
       <c r="K146" t="n">
-        <v>38.88888888888884</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>3.210999999999999</v>
@@ -7699,7 +7699,7 @@
         <v>2.570000000000002</v>
       </c>
       <c r="K147" t="n">
-        <v>25.71428571428573</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>3.208999999999998</v>
@@ -7750,7 +7750,7 @@
         <v>2.580000000000002</v>
       </c>
       <c r="K148" t="n">
-        <v>9.677419354838618</v>
+        <v>-38.46153846153857</v>
       </c>
       <c r="L148" t="n">
         <v>3.203999999999998</v>
@@ -7801,7 +7801,7 @@
         <v>2.580000000000002</v>
       </c>
       <c r="K149" t="n">
-        <v>-12.00000000000006</v>
+        <v>-49.99999999999982</v>
       </c>
       <c r="L149" t="n">
         <v>3.198999999999999</v>
@@ -7852,7 +7852,7 @@
         <v>2.580000000000002</v>
       </c>
       <c r="K150" t="n">
-        <v>-8.333333333333318</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L150" t="n">
         <v>3.192999999999999</v>
@@ -7903,7 +7903,7 @@
         <v>2.590000000000002</v>
       </c>
       <c r="K151" t="n">
-        <v>-11.9999999999999</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>3.188999999999999</v>
@@ -7954,7 +7954,7 @@
         <v>2.610000000000002</v>
       </c>
       <c r="K152" t="n">
-        <v>-4.347826086956421</v>
+        <v>-100</v>
       </c>
       <c r="L152" t="n">
         <v>3.183999999999998</v>
@@ -8005,7 +8005,7 @@
         <v>2.700000000000002</v>
       </c>
       <c r="K153" t="n">
-        <v>-39.99999999999994</v>
+        <v>-100</v>
       </c>
       <c r="L153" t="n">
         <v>3.166999999999999</v>
@@ -8056,7 +8056,7 @@
         <v>2.720000000000002</v>
       </c>
       <c r="K154" t="n">
-        <v>-43.74999999999994</v>
+        <v>-100</v>
       </c>
       <c r="L154" t="n">
         <v>3.147999999999999</v>
@@ -8107,7 +8107,7 @@
         <v>2.760000000000002</v>
       </c>
       <c r="K155" t="n">
-        <v>-27.77777777777775</v>
+        <v>-61.90476190476194</v>
       </c>
       <c r="L155" t="n">
         <v>3.133999999999999</v>
@@ -8158,7 +8158,7 @@
         <v>2.780000000000002</v>
       </c>
       <c r="K156" t="n">
-        <v>-27.77777777777775</v>
+        <v>-42.85714285714292</v>
       </c>
       <c r="L156" t="n">
         <v>3.122999999999999</v>
@@ -8209,7 +8209,7 @@
         <v>2.790000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.8571428571428</v>
       </c>
       <c r="L157" t="n">
         <v>3.113</v>
@@ -8260,7 +8260,7 @@
         <v>2.830000000000002</v>
       </c>
       <c r="K158" t="n">
-        <v>-47.36842105263158</v>
+        <v>-51.99999999999996</v>
       </c>
       <c r="L158" t="n">
         <v>3.099999999999999</v>
@@ -8311,7 +8311,7 @@
         <v>2.840000000000002</v>
       </c>
       <c r="K159" t="n">
-        <v>-48.71794871794874</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L159" t="n">
         <v>3.085999999999999</v>
@@ -8362,7 +8362,7 @@
         <v>2.840000000000002</v>
       </c>
       <c r="K160" t="n">
-        <v>-52.63157894736836</v>
+        <v>-52.00000000000004</v>
       </c>
       <c r="L160" t="n">
         <v>3.071999999999999</v>
@@ -8413,7 +8413,7 @@
         <v>2.850000000000002</v>
       </c>
       <c r="K161" t="n">
-        <v>-44.44444444444434</v>
+        <v>-41.66666666666659</v>
       </c>
       <c r="L161" t="n">
         <v>3.059999999999999</v>
@@ -8464,7 +8464,7 @@
         <v>2.940000000000002</v>
       </c>
       <c r="K162" t="n">
-        <v>-13.63636363636362</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L162" t="n">
         <v>3.058999999999999</v>
@@ -8515,7 +8515,7 @@
         <v>3.030000000000002</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>61.29032258064518</v>
       </c>
       <c r="L163" t="n">
         <v>3.075999999999999</v>
@@ -8566,7 +8566,7 @@
         <v>3.080000000000003</v>
       </c>
       <c r="K164" t="n">
-        <v>-9.09090909090912</v>
+        <v>31.24999999999996</v>
       </c>
       <c r="L164" t="n">
         <v>3.089999999999999</v>
@@ -8617,7 +8617,7 @@
         <v>3.080000000000003</v>
       </c>
       <c r="K165" t="n">
-        <v>-7.407407407407401</v>
+        <v>26.66666666666663</v>
       </c>
       <c r="L165" t="n">
         <v>3.099999999999999</v>
@@ -8668,7 +8668,7 @@
         <v>3.130000000000003</v>
       </c>
       <c r="K166" t="n">
-        <v>-13.79310344827585</v>
+        <v>11.76470588235293</v>
       </c>
       <c r="L166" t="n">
         <v>3.102999999999998</v>
@@ -8719,7 +8719,7 @@
         <v>3.130000000000003</v>
       </c>
       <c r="K167" t="n">
-        <v>-10.7142857142857</v>
+        <v>26.66666666666663</v>
       </c>
       <c r="L167" t="n">
         <v>3.106999999999998</v>
@@ -8770,7 +8770,7 @@
         <v>3.160000000000002</v>
       </c>
       <c r="K168" t="n">
-        <v>-3.448275862068965</v>
+        <v>37.5</v>
       </c>
       <c r="L168" t="n">
         <v>3.117999999999999</v>
@@ -8821,7 +8821,7 @@
         <v>3.190000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>-8.196721311475375</v>
+        <v>25.71428571428579</v>
       </c>
       <c r="L169" t="n">
         <v>3.126999999999998</v>
@@ -8872,7 +8872,7 @@
         <v>3.190000000000002</v>
       </c>
       <c r="K170" t="n">
-        <v>-8.196721311475375</v>
+        <v>23.52941176470591</v>
       </c>
       <c r="L170" t="n">
         <v>3.135999999999998</v>
@@ -8923,7 +8923,7 @@
         <v>3.190000000000002</v>
       </c>
       <c r="K171" t="n">
-        <v>-6.666666666666667</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L171" t="n">
         <v>3.143999999999997</v>
@@ -8974,7 +8974,7 @@
         <v>3.200000000000002</v>
       </c>
       <c r="K172" t="n">
-        <v>-5.0847457627119</v>
+        <v>-64.70588235294139</v>
       </c>
       <c r="L172" t="n">
         <v>3.141999999999998</v>
@@ -9025,7 +9025,7 @@
         <v>3.200000000000002</v>
       </c>
       <c r="K173" t="n">
-        <v>12</v>
+        <v>-50.00000000000019</v>
       </c>
       <c r="L173" t="n">
         <v>3.130999999999998</v>
@@ -9076,7 +9076,7 @@
         <v>3.200000000000002</v>
       </c>
       <c r="K174" t="n">
-        <v>16.66666666666666</v>
+        <v>-50.00000000000019</v>
       </c>
       <c r="L174" t="n">
         <v>3.124999999999998</v>
@@ -9127,7 +9127,7 @@
         <v>3.210000000000003</v>
       </c>
       <c r="K175" t="n">
-        <v>11.11111111111116</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>3.119999999999997</v>
@@ -9178,7 +9178,7 @@
         <v>3.220000000000003</v>
       </c>
       <c r="K176" t="n">
-        <v>4.545454545454541</v>
+        <v>-11.11111111111133</v>
       </c>
       <c r="L176" t="n">
         <v>3.118999999999997</v>
@@ -9229,7 +9229,7 @@
         <v>3.230000000000003</v>
       </c>
       <c r="K177" t="n">
-        <v>9.090909090909074</v>
+        <v>-42.85714285714214</v>
       </c>
       <c r="L177" t="n">
         <v>3.118999999999997</v>
@@ -9280,7 +9280,7 @@
         <v>3.240000000000003</v>
       </c>
       <c r="K178" t="n">
-        <v>17.07317073170721</v>
+        <v>-20</v>
       </c>
       <c r="L178" t="n">
         <v>3.114999999999998</v>
@@ -9331,7 +9331,7 @@
         <v>3.250000000000004</v>
       </c>
       <c r="K179" t="n">
-        <v>21.95121951219512</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>3.114999999999998</v>
@@ -9382,7 +9382,7 @@
         <v>3.280000000000003</v>
       </c>
       <c r="K180" t="n">
-        <v>27.27272727272722</v>
+        <v>33.33333333333267</v>
       </c>
       <c r="L180" t="n">
         <v>3.117999999999998</v>
@@ -9433,7 +9433,7 @@
         <v>3.320000000000003</v>
       </c>
       <c r="K181" t="n">
-        <v>14.89361702127653</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>3.116999999999998</v>
@@ -9484,7 +9484,7 @@
         <v>3.350000000000004</v>
       </c>
       <c r="K182" t="n">
-        <v>2.43902439024395</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
         <v>3.119999999999997</v>
@@ -9535,7 +9535,7 @@
         <v>3.380000000000003</v>
       </c>
       <c r="K183" t="n">
-        <v>-14.28571428571432</v>
+        <v>33.33333333333317</v>
       </c>
       <c r="L183" t="n">
         <v>3.125999999999998</v>
@@ -9586,7 +9586,7 @@
         <v>3.410000000000003</v>
       </c>
       <c r="K184" t="n">
-        <v>-9.090909090909017</v>
+        <v>9.999999999999979</v>
       </c>
       <c r="L184" t="n">
         <v>3.128999999999998</v>
@@ -9637,7 +9637,7 @@
         <v>3.430000000000003</v>
       </c>
       <c r="K185" t="n">
-        <v>-2.857142857142792</v>
+        <v>23.80952380952389</v>
       </c>
       <c r="L185" t="n">
         <v>3.132999999999997</v>
@@ -9688,7 +9688,7 @@
         <v>3.440000000000003</v>
       </c>
       <c r="K186" t="n">
-        <v>16.12903225806443</v>
+        <v>23.80952380952373</v>
       </c>
       <c r="L186" t="n">
         <v>3.138999999999997</v>
@@ -9739,7 +9739,7 @@
         <v>3.440000000000003</v>
       </c>
       <c r="K187" t="n">
-        <v>16.12903225806443</v>
+        <v>30.00000000000006</v>
       </c>
       <c r="L187" t="n">
         <v>3.143999999999997</v>
@@ -9790,7 +9790,7 @@
         <v>3.480000000000003</v>
       </c>
       <c r="K188" t="n">
-        <v>-6.249999999999992</v>
+        <v>4.347826086956438</v>
       </c>
       <c r="L188" t="n">
         <v>3.145999999999997</v>
@@ -9841,7 +9841,7 @@
         <v>3.480000000000003</v>
       </c>
       <c r="K189" t="n">
-        <v>3.448275862068881</v>
+        <v>-10.00000000000002</v>
       </c>
       <c r="L189" t="n">
         <v>3.146999999999998</v>
@@ -9892,7 +9892,7 @@
         <v>3.480000000000003</v>
       </c>
       <c r="K190" t="n">
-        <v>3.448275862068881</v>
+        <v>12.50000000000004</v>
       </c>
       <c r="L190" t="n">
         <v>3.144999999999997</v>
@@ -9943,7 +9943,7 @@
         <v>3.530000000000003</v>
       </c>
       <c r="K191" t="n">
-        <v>-11.76470588235293</v>
+        <v>-33.3333333333335</v>
       </c>
       <c r="L191" t="n">
         <v>3.141999999999997</v>
@@ -9994,7 +9994,7 @@
         <v>3.530000000000003</v>
       </c>
       <c r="K192" t="n">
-        <v>-9.090909090909017</v>
+        <v>-60.00000000000012</v>
       </c>
       <c r="L192" t="n">
         <v>3.135999999999997</v>
@@ -10045,7 +10045,7 @@
         <v>3.550000000000003</v>
       </c>
       <c r="K193" t="n">
-        <v>-2.857142857142792</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="L193" t="n">
         <v>3.128999999999997</v>
@@ -10096,7 +10096,7 @@
         <v>3.550000000000003</v>
       </c>
       <c r="K194" t="n">
-        <v>-2.857142857142792</v>
+        <v>-50.00000000000019</v>
       </c>
       <c r="L194" t="n">
         <v>3.124999999999997</v>
@@ -10147,7 +10147,7 @@
         <v>3.610000000000003</v>
       </c>
       <c r="K195" t="n">
-        <v>10</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L195" t="n">
         <v>3.124999999999997</v>
@@ -10198,7 +10198,7 @@
         <v>3.610000000000003</v>
       </c>
       <c r="K196" t="n">
-        <v>12.82051282051289</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L196" t="n">
         <v>3.123999999999997</v>
@@ -10249,7 +10249,7 @@
         <v>3.620000000000003</v>
       </c>
       <c r="K197" t="n">
-        <v>7.69230769230764</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L197" t="n">
         <v>3.121999999999996</v>
@@ -10300,7 +10300,7 @@
         <v>3.630000000000003</v>
       </c>
       <c r="K198" t="n">
-        <v>7.692307692307762</v>
+        <v>6.666666666666825</v>
       </c>
       <c r="L198" t="n">
         <v>3.122999999999997</v>
@@ -10351,7 +10351,7 @@
         <v>3.670000000000003</v>
       </c>
       <c r="K199" t="n">
-        <v>-4.761904761904772</v>
+        <v>-15.78947368421043</v>
       </c>
       <c r="L199" t="n">
         <v>3.119999999999997</v>
@@ -10402,7 +10402,7 @@
         <v>3.700000000000003</v>
       </c>
       <c r="K200" t="n">
-        <v>-4.761904761904772</v>
+        <v>29.41176470588226</v>
       </c>
       <c r="L200" t="n">
         <v>3.119999999999997</v>
@@ -10453,7 +10453,7 @@
         <v>3.740000000000003</v>
       </c>
       <c r="K201" t="n">
-        <v>-4.761904761904772</v>
+        <v>4.761904761904661</v>
       </c>
       <c r="L201" t="n">
         <v>3.120999999999996</v>
@@ -10504,7 +10504,7 @@
         <v>3.740000000000003</v>
       </c>
       <c r="K202" t="n">
-        <v>-12.82051282051291</v>
+        <v>-5.263157894736965</v>
       </c>
       <c r="L202" t="n">
         <v>3.121999999999997</v>
@@ -10555,7 +10555,7 @@
         <v>3.740000000000003</v>
       </c>
       <c r="K203" t="n">
-        <v>-22.22222222222228</v>
+        <v>-5.263157894736965</v>
       </c>
       <c r="L203" t="n">
         <v>3.120999999999997</v>
@@ -10606,7 +10606,7 @@
         <v>3.740000000000003</v>
       </c>
       <c r="K204" t="n">
-        <v>-15.15151515151525</v>
+        <v>-53.84615384615411</v>
       </c>
       <c r="L204" t="n">
         <v>3.119999999999997</v>
@@ -10657,7 +10657,7 @@
         <v>3.790000000000003</v>
       </c>
       <c r="K205" t="n">
-        <v>-5.555555555555562</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L205" t="n">
         <v>3.117999999999997</v>
@@ -10708,7 +10708,7 @@
         <v>3.790000000000003</v>
       </c>
       <c r="K206" t="n">
-        <v>-8.571428571428513</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L206" t="n">
         <v>3.115999999999997</v>
@@ -10759,7 +10759,7 @@
         <v>3.790000000000003</v>
       </c>
       <c r="K207" t="n">
-        <v>-8.571428571428513</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>3.114999999999996</v>
@@ -10810,7 +10810,7 @@
         <v>3.800000000000003</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>23.07692307692287</v>
       </c>
       <c r="L208" t="n">
         <v>3.113999999999996</v>
@@ -10912,7 +10912,7 @@
         <v>3.820000000000003</v>
       </c>
       <c r="K210" t="n">
-        <v>5.88235294117647</v>
+        <v>74.99999999999959</v>
       </c>
       <c r="L210" t="n">
         <v>3.118999999999997</v>
@@ -10963,7 +10963,7 @@
         <v>3.830000000000003</v>
       </c>
       <c r="K211" t="n">
-        <v>20</v>
+        <v>55.55555555555567</v>
       </c>
       <c r="L211" t="n">
         <v>3.123999999999996</v>
@@ -11014,7 +11014,7 @@
         <v>3.840000000000003</v>
       </c>
       <c r="K212" t="n">
-        <v>16.12903225806443</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L212" t="n">
         <v>3.127999999999996</v>
@@ -11065,7 +11065,7 @@
         <v>3.890000000000003</v>
       </c>
       <c r="K213" t="n">
-        <v>-5.88235294117647</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L213" t="n">
         <v>3.126999999999996</v>
@@ -11116,7 +11116,7 @@
         <v>3.890000000000003</v>
       </c>
       <c r="K214" t="n">
-        <v>-5.88235294117647</v>
+        <v>-60</v>
       </c>
       <c r="L214" t="n">
         <v>3.125999999999997</v>
@@ -11167,7 +11167,7 @@
         <v>3.900000000000003</v>
       </c>
       <c r="K215" t="n">
-        <v>-31.03448275862074</v>
+        <v>-63.63636363636371</v>
       </c>
       <c r="L215" t="n">
         <v>3.118999999999996</v>
@@ -11218,7 +11218,7 @@
         <v>3.930000000000004</v>
       </c>
       <c r="K216" t="n">
-        <v>-18.74999999999998</v>
+        <v>-28.57142857142848</v>
       </c>
       <c r="L216" t="n">
         <v>3.114999999999996</v>
@@ -11269,7 +11269,7 @@
         <v>3.930000000000004</v>
       </c>
       <c r="K217" t="n">
-        <v>-16.12903225806443</v>
+        <v>-23.07692307692287</v>
       </c>
       <c r="L217" t="n">
         <v>3.110999999999996</v>
@@ -11320,7 +11320,7 @@
         <v>3.960000000000004</v>
       </c>
       <c r="K218" t="n">
-        <v>-3.030303030303096</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>3.110999999999997</v>
@@ -11371,7 +11371,7 @@
         <v>3.990000000000003</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>-29.41176470588226</v>
       </c>
       <c r="L219" t="n">
         <v>3.107999999999997</v>
@@ -11422,7 +11422,7 @@
         <v>4.000000000000004</v>
       </c>
       <c r="K220" t="n">
-        <v>-13.33333333333331</v>
+        <v>-29.41176470588244</v>
       </c>
       <c r="L220" t="n">
         <v>3.101999999999997</v>
@@ -11473,7 +11473,7 @@
         <v>4.000000000000004</v>
       </c>
       <c r="K221" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L221" t="n">
         <v>3.096999999999997</v>
@@ -11524,7 +11524,7 @@
         <v>4.020000000000003</v>
       </c>
       <c r="K222" t="n">
-        <v>7.142857142857142</v>
+        <v>23.07692307692295</v>
       </c>
       <c r="L222" t="n">
         <v>3.094999999999997</v>
@@ -11575,7 +11575,7 @@
         <v>4.050000000000002</v>
       </c>
       <c r="K223" t="n">
-        <v>-3.225806451612839</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>3.094999999999998</v>
@@ -11626,7 +11626,7 @@
         <v>4.050000000000002</v>
       </c>
       <c r="K224" t="n">
-        <v>-3.225806451612839</v>
+        <v>6.666666666666863</v>
       </c>
       <c r="L224" t="n">
         <v>3.094999999999998</v>
@@ -11677,7 +11677,7 @@
         <v>4.070000000000002</v>
       </c>
       <c r="K225" t="n">
-        <v>-28.57142857142871</v>
+        <v>-28.57142857142894</v>
       </c>
       <c r="L225" t="n">
         <v>3.093999999999998</v>
@@ -11728,7 +11728,7 @@
         <v>4.100000000000002</v>
       </c>
       <c r="K226" t="n">
-        <v>-35.48387096774213</v>
+        <v>-41.1764705882358</v>
       </c>
       <c r="L226" t="n">
         <v>3.086999999999998</v>
@@ -11779,7 +11779,7 @@
         <v>4.130000000000003</v>
       </c>
       <c r="K227" t="n">
-        <v>-23.52941176470594</v>
+        <v>-41.17647058823543</v>
       </c>
       <c r="L227" t="n">
         <v>3.082999999999998</v>
@@ -11830,7 +11830,7 @@
         <v>4.180000000000003</v>
       </c>
       <c r="K228" t="n">
-        <v>-31.57894736842109</v>
+        <v>-47.36842105263175</v>
       </c>
       <c r="L228" t="n">
         <v>3.070999999999998</v>
@@ -11881,7 +11881,7 @@
         <v>4.200000000000003</v>
       </c>
       <c r="K229" t="n">
-        <v>-25.00000000000006</v>
+        <v>-30.00000000000013</v>
       </c>
       <c r="L229" t="n">
         <v>3.063999999999997</v>
@@ -11932,7 +11932,7 @@
         <v>4.200000000000003</v>
       </c>
       <c r="K230" t="n">
-        <v>-31.57894736842113</v>
+        <v>-30.00000000000013</v>
       </c>
       <c r="L230" t="n">
         <v>3.057999999999997</v>
@@ -11983,7 +11983,7 @@
         <v>4.220000000000002</v>
       </c>
       <c r="K231" t="n">
-        <v>-23.0769230769232</v>
+        <v>-30.00000000000013</v>
       </c>
       <c r="L231" t="n">
         <v>3.053999999999998</v>
@@ -12034,7 +12034,7 @@
         <v>4.240000000000002</v>
       </c>
       <c r="K232" t="n">
-        <v>-15.00000000000007</v>
+        <v>-5.263157894736977</v>
       </c>
       <c r="L232" t="n">
         <v>3.049999999999997</v>
@@ -12085,7 +12085,7 @@
         <v>4.240000000000002</v>
       </c>
       <c r="K233" t="n">
-        <v>-2.857142857142934</v>
+        <v>-5.263157894736977</v>
       </c>
       <c r="L233" t="n">
         <v>3.048999999999997</v>
@@ -12136,7 +12136,7 @@
         <v>4.240000000000002</v>
       </c>
       <c r="K234" t="n">
-        <v>-2.857142857142934</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L234" t="n">
         <v>3.047999999999997</v>
@@ -12187,7 +12187,7 @@
         <v>4.250000000000002</v>
       </c>
       <c r="K235" t="n">
-        <v>-2.85714285714281</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L235" t="n">
         <v>3.047999999999998</v>
@@ -12238,7 +12238,7 @@
         <v>4.250000000000002</v>
       </c>
       <c r="K236" t="n">
-        <v>-12.50000000000009</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>3.050999999999997</v>
@@ -12289,7 +12289,7 @@
         <v>4.260000000000002</v>
       </c>
       <c r="K237" t="n">
-        <v>-9.090909090909225</v>
+        <v>75.00000000000166</v>
       </c>
       <c r="L237" t="n">
         <v>3.051999999999998</v>
@@ -12340,7 +12340,7 @@
         <v>4.320000000000002</v>
       </c>
       <c r="K238" t="n">
-        <v>-33.3333333333335</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L238" t="n">
         <v>3.051999999999998</v>
@@ -12391,7 +12391,7 @@
         <v>4.350000000000002</v>
       </c>
       <c r="K239" t="n">
-        <v>-16.66666666666673</v>
+        <v>6.666666666666845</v>
       </c>
       <c r="L239" t="n">
         <v>3.052999999999998</v>
@@ -12442,7 +12442,7 @@
         <v>4.370000000000003</v>
       </c>
       <c r="K240" t="n">
-        <v>-18.91891891891892</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L240" t="n">
         <v>3.051999999999998</v>
@@ -12493,7 +12493,7 @@
         <v>4.390000000000002</v>
       </c>
       <c r="K241" t="n">
-        <v>-12.82051282051281</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L241" t="n">
         <v>3.050999999999998</v>
@@ -12544,7 +12544,7 @@
         <v>4.400000000000002</v>
       </c>
       <c r="K242" t="n">
-        <v>-15.78947368421058</v>
+        <v>-12.5</v>
       </c>
       <c r="L242" t="n">
         <v>3.048999999999998</v>
@@ -12595,7 +12595,7 @@
         <v>4.410000000000002</v>
       </c>
       <c r="K243" t="n">
-        <v>-11.11111111111114</v>
+        <v>-17.64705882352931</v>
       </c>
       <c r="L243" t="n">
         <v>3.045999999999998</v>
@@ -12646,7 +12646,7 @@
         <v>4.410000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>-11.11111111111114</v>
+        <v>-12.5</v>
       </c>
       <c r="L244" t="n">
         <v>3.042999999999998</v>
@@ -12697,7 +12697,7 @@
         <v>4.410000000000002</v>
       </c>
       <c r="K245" t="n">
-        <v>-5.882352941176478</v>
+        <v>-12.5</v>
       </c>
       <c r="L245" t="n">
         <v>3.040999999999998</v>
@@ -12748,7 +12748,7 @@
         <v>4.410000000000002</v>
       </c>
       <c r="K246" t="n">
-        <v>3.225806451612982</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L246" t="n">
         <v>3.038999999999998</v>
@@ -12799,7 +12799,7 @@
         <v>4.410000000000002</v>
       </c>
       <c r="K247" t="n">
-        <v>-7.142857142857166</v>
+        <v>33.33333333333366</v>
       </c>
       <c r="L247" t="n">
         <v>3.035999999999999</v>
@@ -12850,7 +12850,7 @@
         <v>4.430000000000001</v>
       </c>
       <c r="K248" t="n">
-        <v>4.000000000000121</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L248" t="n">
         <v>3.036999999999999</v>
@@ -12901,7 +12901,7 @@
         <v>4.440000000000001</v>
       </c>
       <c r="K249" t="n">
-        <v>-8.333333333333396</v>
+        <v>-14.28571428571492</v>
       </c>
       <c r="L249" t="n">
         <v>3.033999999999999</v>
@@ -12952,7 +12952,7 @@
         <v>4.440000000000001</v>
       </c>
       <c r="K250" t="n">
-        <v>-8.333333333333396</v>
+        <v>-60.00000000000178</v>
       </c>
       <c r="L250" t="n">
         <v>3.032999999999999</v>
@@ -13003,7 +13003,7 @@
         <v>4.450000000000001</v>
       </c>
       <c r="K251" t="n">
-        <v>-21.73913043478266</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L251" t="n">
         <v>3.028999999999999</v>
@@ -13054,7 +13054,7 @@
         <v>4.450000000000001</v>
       </c>
       <c r="K252" t="n">
-        <v>-33.33333333333341</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L252" t="n">
         <v>3.023999999999998</v>
@@ -13105,7 +13105,7 @@
         <v>4.48</v>
       </c>
       <c r="K253" t="n">
-        <v>-41.66666666666679</v>
+        <v>-100.0000000000019</v>
       </c>
       <c r="L253" t="n">
         <v>3.016999999999999</v>
@@ -13156,7 +13156,7 @@
         <v>4.53</v>
       </c>
       <c r="K254" t="n">
-        <v>-17.24137931034487</v>
+        <v>-16.66666666666691</v>
       </c>
       <c r="L254" t="n">
         <v>3.014999999999999</v>
@@ -13207,7 +13207,7 @@
         <v>4.53</v>
       </c>
       <c r="K255" t="n">
-        <v>-14.28571428571438</v>
+        <v>-16.66666666666691</v>
       </c>
       <c r="L255" t="n">
         <v>3.012999999999999</v>
@@ -13258,7 +13258,7 @@
         <v>4.53</v>
       </c>
       <c r="K256" t="n">
-        <v>-14.28571428571438</v>
+        <v>-16.66666666666691</v>
       </c>
       <c r="L256" t="n">
         <v>3.011</v>
@@ -13309,7 +13309,7 @@
         <v>4.54</v>
       </c>
       <c r="K257" t="n">
-        <v>-14.28571428571438</v>
+        <v>9.090909090909017</v>
       </c>
       <c r="L257" t="n">
         <v>3.01</v>
@@ -13360,7 +13360,7 @@
         <v>4.59</v>
       </c>
       <c r="K258" t="n">
-        <v>-11.11111111111113</v>
+        <v>-20.00000000000006</v>
       </c>
       <c r="L258" t="n">
         <v>3.006</v>
@@ -13411,7 +13411,7 @@
         <v>4.609999999999999</v>
       </c>
       <c r="K259" t="n">
-        <v>-15.38461538461557</v>
+        <v>-5.88235294117641</v>
       </c>
       <c r="L259" t="n">
         <v>3.005</v>
@@ -13462,7 +13462,7 @@
         <v>4.629999999999999</v>
       </c>
       <c r="K260" t="n">
-        <v>-15.38461538461562</v>
+        <v>-11.11111111111125</v>
       </c>
       <c r="L260" t="n">
         <v>3.002</v>
@@ -13513,7 +13513,7 @@
         <v>4.639999999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>-28.00000000000033</v>
+        <v>-15.78947368421061</v>
       </c>
       <c r="L261" t="n">
         <v>2.999</v>
@@ -13564,7 +13564,7 @@
         <v>4.649999999999999</v>
       </c>
       <c r="K262" t="n">
-        <v>-36.00000000000045</v>
+        <v>-5.88235294117667</v>
       </c>
       <c r="L262" t="n">
         <v>2.995</v>
@@ -13615,7 +13615,7 @@
         <v>4.689999999999999</v>
       </c>
       <c r="K263" t="n">
-        <v>-42.8571428571434</v>
+        <v>-62.5000000000007</v>
       </c>
       <c r="L263" t="n">
         <v>2.990000000000001</v>
@@ -13666,7 +13666,7 @@
         <v>4.769999999999999</v>
       </c>
       <c r="K264" t="n">
-        <v>-11.11111111111122</v>
+        <v>-8.333333333333396</v>
       </c>
       <c r="L264" t="n">
         <v>2.988</v>
@@ -13717,7 +13717,7 @@
         <v>4.769999999999999</v>
       </c>
       <c r="K265" t="n">
-        <v>-11.11111111111122</v>
+        <v>-8.333333333333396</v>
       </c>
       <c r="L265" t="n">
         <v>2.986000000000001</v>
@@ -13768,7 +13768,7 @@
         <v>4.789999999999999</v>
       </c>
       <c r="K266" t="n">
-        <v>-15.78947368421066</v>
+        <v>-20</v>
       </c>
       <c r="L266" t="n">
         <v>2.982000000000001</v>
@@ -13819,7 +13819,7 @@
         <v>4.809999999999999</v>
       </c>
       <c r="K267" t="n">
-        <v>-20.00000000000018</v>
+        <v>-9.090909090909145</v>
       </c>
       <c r="L267" t="n">
         <v>2.975000000000001</v>
@@ -13870,7 +13870,7 @@
         <v>4.829999999999998</v>
       </c>
       <c r="K268" t="n">
-        <v>-20.00000000000018</v>
+        <v>-27.27272727272744</v>
       </c>
       <c r="L268" t="n">
         <v>2.971000000000001</v>
@@ -13921,7 +13921,7 @@
         <v>4.839999999999998</v>
       </c>
       <c r="K269" t="n">
-        <v>-20.00000000000007</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L269" t="n">
         <v>2.964000000000001</v>
@@ -13972,7 +13972,7 @@
         <v>4.839999999999998</v>
       </c>
       <c r="K270" t="n">
-        <v>-20.00000000000007</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L270" t="n">
         <v>2.959000000000001</v>
@@ -14023,7 +14023,7 @@
         <v>4.869999999999997</v>
       </c>
       <c r="K271" t="n">
-        <v>-9.523809523809614</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>2.958000000000001</v>
@@ -14074,7 +14074,7 @@
         <v>4.869999999999997</v>
       </c>
       <c r="K272" t="n">
-        <v>-9.523809523809614</v>
+        <v>22.22222222222239</v>
       </c>
       <c r="L272" t="n">
         <v>2.958000000000001</v>
@@ -14125,7 +14125,7 @@
         <v>4.879999999999997</v>
       </c>
       <c r="K273" t="n">
-        <v>-5.000000000000044</v>
+        <v>-45.45454545454589</v>
       </c>
       <c r="L273" t="n">
         <v>2.961000000000001</v>
@@ -14176,7 +14176,7 @@
         <v>4.899999999999997</v>
       </c>
       <c r="K274" t="n">
-        <v>-13.51351351351359</v>
+        <v>-23.07692307692326</v>
       </c>
       <c r="L274" t="n">
         <v>2.958000000000001</v>
@@ -14227,7 +14227,7 @@
         <v>4.899999999999997</v>
       </c>
       <c r="K275" t="n">
-        <v>-13.51351351351359</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L275" t="n">
         <v>2.955000000000001</v>
@@ -14278,7 +14278,7 @@
         <v>4.909999999999997</v>
       </c>
       <c r="K276" t="n">
-        <v>-10.5263157894738</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L276" t="n">
         <v>2.955</v>
@@ -14329,7 +14329,7 @@
         <v>4.909999999999997</v>
       </c>
       <c r="K277" t="n">
-        <v>-13.51351351351359</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L277" t="n">
         <v>2.957</v>
@@ -14380,7 +14380,7 @@
         <v>4.929999999999996</v>
       </c>
       <c r="K278" t="n">
-        <v>5.88235294117654</v>
+        <v>77.77777777777925</v>
       </c>
       <c r="L278" t="n">
         <v>2.963</v>
@@ -14431,7 +14431,7 @@
         <v>4.939999999999996</v>
       </c>
       <c r="K279" t="n">
-        <v>-3.030303030302998</v>
+        <v>60.00000000000133</v>
       </c>
       <c r="L279" t="n">
         <v>2.969</v>
@@ -14482,7 +14482,7 @@
         <v>4.939999999999996</v>
       </c>
       <c r="K280" t="n">
-        <v>3.225806451613009</v>
+        <v>42.85714285714413</v>
       </c>
       <c r="L280" t="n">
         <v>2.975</v>
@@ -14533,7 +14533,7 @@
         <v>4.959999999999996</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>11.1111111111116</v>
       </c>
       <c r="L281" t="n">
         <v>2.976</v>
@@ -14584,7 +14584,7 @@
         <v>4.979999999999995</v>
       </c>
       <c r="K282" t="n">
-        <v>-3.030303030302998</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>2.975</v>
@@ -14635,7 +14635,7 @@
         <v>4.979999999999995</v>
       </c>
       <c r="K283" t="n">
-        <v>10.34482758620711</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L283" t="n">
         <v>2.975000000000001</v>
@@ -14686,7 +14686,7 @@
         <v>4.979999999999995</v>
       </c>
       <c r="K284" t="n">
-        <v>-23.80952380952413</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L284" t="n">
         <v>2.973</v>
@@ -14737,7 +14737,7 @@
         <v>4.999999999999995</v>
       </c>
       <c r="K285" t="n">
-        <v>-30.43478260869611</v>
+        <v>-55.55555555555654</v>
       </c>
       <c r="L285" t="n">
         <v>2.969</v>
@@ -14788,7 +14788,7 @@
         <v>4.999999999999995</v>
       </c>
       <c r="K286" t="n">
-        <v>-23.80952380952423</v>
+        <v>-55.55555555555654</v>
       </c>
       <c r="L286" t="n">
         <v>2.964</v>
@@ -14839,7 +14839,7 @@
         <v>4.999999999999995</v>
       </c>
       <c r="K287" t="n">
-        <v>-15.78947368421076</v>
+        <v>-100.0000000000019</v>
       </c>
       <c r="L287" t="n">
         <v>2.959000000000001</v>
@@ -14890,7 +14890,7 @@
         <v>5.009999999999994</v>
       </c>
       <c r="K288" t="n">
-        <v>0</v>
+        <v>-71.42857142857333</v>
       </c>
       <c r="L288" t="n">
         <v>2.953000000000001</v>
@@ -14941,7 +14941,7 @@
         <v>5.009999999999994</v>
       </c>
       <c r="K289" t="n">
-        <v>5.88235294117647</v>
+        <v>-71.42857142857333</v>
       </c>
       <c r="L289" t="n">
         <v>2.948</v>
@@ -14992,7 +14992,7 @@
         <v>5.039999999999995</v>
       </c>
       <c r="K290" t="n">
-        <v>20.00000000000036</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>2.946</v>
@@ -15043,7 +15043,7 @@
         <v>5.059999999999995</v>
       </c>
       <c r="K291" t="n">
-        <v>-5.263157894736794</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>2.944</v>
@@ -15094,7 +15094,7 @@
         <v>5.069999999999995</v>
       </c>
       <c r="K292" t="n">
-        <v>-10.00000000000013</v>
+        <v>-11.11111111111139</v>
       </c>
       <c r="L292" t="n">
         <v>2.943000000000001</v>
@@ -15145,7 +15145,7 @@
         <v>5.099999999999995</v>
       </c>
       <c r="K293" t="n">
-        <v>9.090909090909182</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L293" t="n">
         <v>2.945000000000001</v>
@@ -15196,7 +15196,7 @@
         <v>5.129999999999995</v>
       </c>
       <c r="K294" t="n">
-        <v>-13.04347826086975</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L294" t="n">
         <v>2.944000000000001</v>
@@ -15247,7 +15247,7 @@
         <v>5.169999999999995</v>
       </c>
       <c r="K295" t="n">
-        <v>3.703703703703643</v>
+        <v>29.41176470588211</v>
       </c>
       <c r="L295" t="n">
         <v>2.949000000000001</v>
@@ -15298,7 +15298,7 @@
         <v>5.169999999999995</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>29.41176470588211</v>
       </c>
       <c r="L296" t="n">
         <v>2.954000000000001</v>
@@ -15349,7 +15349,7 @@
         <v>5.169999999999995</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L297" t="n">
         <v>2.959000000000001</v>
@@ -15400,7 +15400,7 @@
         <v>5.169999999999995</v>
       </c>
       <c r="K298" t="n">
-        <v>-8.333333333333364</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L298" t="n">
         <v>2.963</v>
@@ -15451,7 +15451,7 @@
         <v>5.189999999999996</v>
       </c>
       <c r="K299" t="n">
-        <v>3.999999999999915</v>
+        <v>19.99999999999971</v>
       </c>
       <c r="L299" t="n">
         <v>2.968999999999999</v>
@@ -15502,7 +15502,7 @@
         <v>5.189999999999996</v>
       </c>
       <c r="K300" t="n">
-        <v>3.999999999999915</v>
+        <v>38.46153846153809</v>
       </c>
       <c r="L300" t="n">
         <v>2.972</v>
@@ -15553,7 +15553,7 @@
         <v>5.189999999999996</v>
       </c>
       <c r="K301" t="n">
-        <v>13.04347826086946</v>
+        <v>49.99999999999963</v>
       </c>
       <c r="L301" t="n">
         <v>2.977</v>
@@ -15604,7 +15604,7 @@
         <v>5.189999999999996</v>
       </c>
       <c r="K302" t="n">
-        <v>23.80952380952363</v>
+        <v>33.33333333333284</v>
       </c>
       <c r="L302" t="n">
         <v>2.983</v>
@@ -15655,7 +15655,7 @@
         <v>5.189999999999996</v>
       </c>
       <c r="K303" t="n">
-        <v>23.80952380952363</v>
+        <v>99.99999999999926</v>
       </c>
       <c r="L303" t="n">
         <v>2.986</v>
@@ -15706,7 +15706,7 @@
         <v>5.189999999999996</v>
       </c>
       <c r="K304" t="n">
-        <v>23.80952380952363</v>
+        <v>99.99999999999778</v>
       </c>
       <c r="L304" t="n">
         <v>2.992</v>
@@ -15757,7 +15757,7 @@
         <v>5.249999999999996</v>
       </c>
       <c r="K305" t="n">
-        <v>3.999999999999886</v>
+        <v>-49.99999999999945</v>
       </c>
       <c r="L305" t="n">
         <v>2.988</v>
@@ -15808,7 +15808,7 @@
         <v>5.259999999999996</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>-55.5555555555549</v>
       </c>
       <c r="L306" t="n">
         <v>2.983</v>
@@ -15859,7 +15859,7 @@
         <v>5.279999999999996</v>
       </c>
       <c r="K307" t="n">
-        <v>-7.14285714285712</v>
+        <v>-63.6363636363633</v>
       </c>
       <c r="L307" t="n">
         <v>2.976</v>
@@ -15910,7 +15910,7 @@
         <v>5.339999999999996</v>
       </c>
       <c r="K308" t="n">
-        <v>9.090909090909115</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L308" t="n">
         <v>2.975000000000001</v>
@@ -15961,7 +15961,7 @@
         <v>5.359999999999996</v>
       </c>
       <c r="K309" t="n">
-        <v>2.857142857142911</v>
+        <v>-29.41176470588226</v>
       </c>
       <c r="L309" t="n">
         <v>2.97</v>
@@ -16012,7 +16012,7 @@
         <v>5.389999999999995</v>
       </c>
       <c r="K310" t="n">
-        <v>2.857142857142792</v>
+        <v>-10.00000000000004</v>
       </c>
       <c r="L310" t="n">
         <v>2.968</v>
@@ -16063,7 +16063,7 @@
         <v>5.389999999999995</v>
       </c>
       <c r="K311" t="n">
-        <v>9.09090909090903</v>
+        <v>-10.00000000000004</v>
       </c>
       <c r="L311" t="n">
         <v>2.966</v>
@@ -16114,7 +16114,7 @@
         <v>5.399999999999995</v>
       </c>
       <c r="K312" t="n">
-        <v>15.15151515151523</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L312" t="n">
         <v>2.965</v>
@@ -16165,7 +16165,7 @@
         <v>5.409999999999995</v>
       </c>
       <c r="K313" t="n">
-        <v>9.67741935483866</v>
+        <v>0</v>
       </c>
       <c r="L313" t="n">
         <v>2.965</v>
@@ -16216,7 +16216,7 @@
         <v>5.409999999999995</v>
       </c>
       <c r="K314" t="n">
-        <v>21.4285714285715</v>
+        <v>37.50000000000042</v>
       </c>
       <c r="L314" t="n">
         <v>2.965</v>
@@ -16267,7 +16267,7 @@
         <v>5.409999999999995</v>
       </c>
       <c r="K315" t="n">
-        <v>8.333333333333364</v>
+        <v>46.666666666667</v>
       </c>
       <c r="L315" t="n">
         <v>2.971</v>
@@ -16318,7 +16318,7 @@
         <v>5.409999999999995</v>
       </c>
       <c r="K316" t="n">
-        <v>8.333333333333364</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L316" t="n">
         <v>2.977999999999999</v>
@@ -16369,7 +16369,7 @@
         <v>5.409999999999995</v>
       </c>
       <c r="K317" t="n">
-        <v>8.333333333333364</v>
+        <v>42.85714285714349</v>
       </c>
       <c r="L317" t="n">
         <v>2.986999999999999</v>
@@ -16420,7 +16420,7 @@
         <v>5.419999999999995</v>
       </c>
       <c r="K318" t="n">
-        <v>4.000000000000107</v>
+        <v>66.66666666666815</v>
       </c>
       <c r="L318" t="n">
         <v>2.988999999999999</v>
@@ -16471,7 +16471,7 @@
         <v>5.429999999999994</v>
       </c>
       <c r="K319" t="n">
-        <v>-8.333333333333396</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>2.991999999999999</v>
@@ -16522,7 +16522,7 @@
         <v>5.459999999999994</v>
       </c>
       <c r="K320" t="n">
-        <v>-18.5185185185186</v>
+        <v>-42.85714285714349</v>
       </c>
       <c r="L320" t="n">
         <v>2.988999999999999</v>
@@ -16573,7 +16573,7 @@
         <v>5.469999999999994</v>
       </c>
       <c r="K321" t="n">
-        <v>-14.28571428571442</v>
+        <v>-42.85714285714413</v>
       </c>
       <c r="L321" t="n">
         <v>2.986999999999999</v>
@@ -16624,7 +16624,7 @@
         <v>5.469999999999994</v>
       </c>
       <c r="K322" t="n">
-        <v>-14.28571428571442</v>
+        <v>-66.66666666666815</v>
       </c>
       <c r="L322" t="n">
         <v>2.983999999999998</v>
@@ -16675,7 +16675,7 @@
         <v>5.469999999999994</v>
       </c>
       <c r="K323" t="n">
-        <v>-14.28571428571442</v>
+        <v>-66.66666666666815</v>
       </c>
       <c r="L323" t="n">
         <v>2.979999999999998</v>
@@ -16726,7 +16726,7 @@
         <v>5.489999999999993</v>
       </c>
       <c r="K324" t="n">
-        <v>-6.666666666666736</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L324" t="n">
         <v>2.977999999999998</v>
@@ -16777,7 +16777,7 @@
         <v>5.519999999999992</v>
       </c>
       <c r="K325" t="n">
-        <v>3.703703703703844</v>
+        <v>-45.45454545454626</v>
       </c>
       <c r="L325" t="n">
         <v>2.972999999999998</v>
@@ -16828,7 +16828,7 @@
         <v>5.529999999999992</v>
       </c>
       <c r="K326" t="n">
-        <v>11.1111111111112</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L326" t="n">
         <v>2.968999999999999</v>
@@ -16879,7 +16879,7 @@
         <v>5.529999999999992</v>
       </c>
       <c r="K327" t="n">
-        <v>20.00000000000021</v>
+        <v>-27.27272727272808</v>
       </c>
       <c r="L327" t="n">
         <v>2.964999999999999</v>
@@ -16930,7 +16930,7 @@
         <v>5.539999999999992</v>
       </c>
       <c r="K328" t="n">
-        <v>-10.00000000000022</v>
+        <v>-27.27272727272767</v>
       </c>
       <c r="L328" t="n">
         <v>2.960999999999999</v>
@@ -16981,7 +16981,7 @@
         <v>5.569999999999992</v>
       </c>
       <c r="K329" t="n">
-        <v>-14.28571428571465</v>
+        <v>-27.27272727272786</v>
       </c>
       <c r="L329" t="n">
         <v>2.954999999999999</v>
@@ -17032,7 +17032,7 @@
         <v>5.569999999999992</v>
       </c>
       <c r="K330" t="n">
-        <v>-33.33333333333391</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L330" t="n">
         <v>2.951999999999999</v>
@@ -17083,7 +17083,7 @@
         <v>5.589999999999993</v>
       </c>
       <c r="K331" t="n">
-        <v>-20.00000000000027</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L331" t="n">
         <v>2.949999999999998</v>
@@ -17134,7 +17134,7 @@
         <v>5.599999999999993</v>
       </c>
       <c r="K332" t="n">
-        <v>-20.00000000000027</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L332" t="n">
         <v>2.948999999999999</v>
@@ -17185,7 +17185,7 @@
         <v>5.609999999999992</v>
       </c>
       <c r="K333" t="n">
-        <v>-20.00000000000027</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L333" t="n">
         <v>2.948999999999999</v>
@@ -17236,7 +17236,7 @@
         <v>5.619999999999992</v>
       </c>
       <c r="K334" t="n">
-        <v>-23.80952380952403</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>2.945999999999999</v>
@@ -17287,7 +17287,7 @@
         <v>5.629999999999992</v>
       </c>
       <c r="K335" t="n">
-        <v>-18.18181818181844</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>2.946999999999999</v>
@@ -17338,7 +17338,7 @@
         <v>5.639999999999992</v>
       </c>
       <c r="K336" t="n">
-        <v>-21.73913043478283</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L336" t="n">
         <v>2.945999999999999</v>
@@ -17389,7 +17389,7 @@
         <v>5.649999999999991</v>
       </c>
       <c r="K337" t="n">
-        <v>-16.66666666666691</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L337" t="n">
         <v>2.945999999999999</v>
@@ -17440,7 +17440,7 @@
         <v>5.649999999999991</v>
       </c>
       <c r="K338" t="n">
-        <v>-13.04347826086985</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L338" t="n">
         <v>2.946999999999999</v>
@@ -17491,7 +17491,7 @@
         <v>5.659999999999991</v>
       </c>
       <c r="K339" t="n">
-        <v>-13.04347826086966</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L339" t="n">
         <v>2.949999999999998</v>
@@ -17542,7 +17542,7 @@
         <v>5.669999999999991</v>
       </c>
       <c r="K340" t="n">
-        <v>4.761904761904721</v>
+        <v>25.00000000000055</v>
       </c>
       <c r="L340" t="n">
         <v>2.953999999999998</v>
@@ -17593,7 +17593,7 @@
         <v>5.719999999999991</v>
       </c>
       <c r="K341" t="n">
-        <v>-20.00000000000014</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L341" t="n">
         <v>2.950999999999999</v>
@@ -17644,7 +17644,7 @@
         <v>5.729999999999992</v>
       </c>
       <c r="K342" t="n">
-        <v>-23.07692307692328</v>
+        <v>-50.00000000000037</v>
       </c>
       <c r="L342" t="n">
         <v>2.945999999999999</v>
@@ -17695,7 +17695,7 @@
         <v>5.759999999999992</v>
       </c>
       <c r="K343" t="n">
-        <v>-10.34482758620689</v>
+        <v>-14.28571428571433</v>
       </c>
       <c r="L343" t="n">
         <v>2.942999999999999</v>
@@ -17746,7 +17746,7 @@
         <v>5.759999999999992</v>
       </c>
       <c r="K344" t="n">
-        <v>-18.51851851851854</v>
+        <v>-23.07692307692295</v>
       </c>
       <c r="L344" t="n">
         <v>2.940999999999999</v>
@@ -17797,7 +17797,7 @@
         <v>5.759999999999992</v>
       </c>
       <c r="K345" t="n">
-        <v>-8.333333333333364</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L345" t="n">
         <v>2.938</v>
@@ -17848,7 +17848,7 @@
         <v>5.769999999999992</v>
       </c>
       <c r="K346" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333309</v>
       </c>
       <c r="L346" t="n">
         <v>2.935</v>
@@ -17899,7 +17899,7 @@
         <v>5.769999999999992</v>
       </c>
       <c r="K347" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333309</v>
       </c>
       <c r="L347" t="n">
         <v>2.931</v>
@@ -17950,7 +17950,7 @@
         <v>5.779999999999992</v>
       </c>
       <c r="K348" t="n">
-        <v>-8.333333333333332</v>
+        <v>-16.66666666666654</v>
       </c>
       <c r="L348" t="n">
         <v>2.927999999999999</v>
@@ -18001,7 +18001,7 @@
         <v>5.819999999999992</v>
       </c>
       <c r="K349" t="n">
-        <v>20.00000000000011</v>
+        <v>6.666666666666766</v>
       </c>
       <c r="L349" t="n">
         <v>2.929999999999999</v>
@@ -18052,7 +18052,7 @@
         <v>5.819999999999992</v>
       </c>
       <c r="K350" t="n">
-        <v>20.00000000000011</v>
+        <v>59.9999999999992</v>
       </c>
       <c r="L350" t="n">
         <v>2.931</v>
@@ -18103,7 +18103,7 @@
         <v>5.819999999999992</v>
       </c>
       <c r="K351" t="n">
-        <v>13.0434782608697</v>
+        <v>77.77777777777744</v>
       </c>
       <c r="L351" t="n">
         <v>2.936999999999999</v>
@@ -18154,7 +18154,7 @@
         <v>5.839999999999993</v>
       </c>
       <c r="K352" t="n">
-        <v>16.66666666666666</v>
+        <v>74.99999999999916</v>
       </c>
       <c r="L352" t="n">
         <v>2.945999999999999</v>
@@ -18205,7 +18205,7 @@
         <v>5.889999999999993</v>
       </c>
       <c r="K353" t="n">
-        <v>-7.14285714285712</v>
+        <v>7.692307692307429</v>
       </c>
       <c r="L353" t="n">
         <v>2.946999999999999</v>
@@ -18256,7 +18256,7 @@
         <v>5.899999999999993</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>14.28571428571415</v>
       </c>
       <c r="L354" t="n">
         <v>2.948999999999999</v>
@@ -18307,7 +18307,7 @@
         <v>5.899999999999993</v>
       </c>
       <c r="K355" t="n">
-        <v>-3.703703703703606</v>
+        <v>23.07692307692313</v>
       </c>
       <c r="L355" t="n">
         <v>2.951</v>
@@ -18358,7 +18358,7 @@
         <v>5.899999999999993</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>23.07692307692313</v>
       </c>
       <c r="L356" t="n">
         <v>2.954</v>
@@ -18409,7 +18409,7 @@
         <v>5.899999999999993</v>
       </c>
       <c r="K357" t="n">
-        <v>-3.999999999999886</v>
+        <v>16.66666666666654</v>
       </c>
       <c r="L357" t="n">
         <v>2.957</v>
@@ -18460,7 +18460,7 @@
         <v>5.899999999999993</v>
       </c>
       <c r="K358" t="n">
-        <v>-3.999999999999886</v>
+        <v>-24.99999999999972</v>
       </c>
       <c r="L358" t="n">
         <v>2.959000000000001</v>
@@ -18511,7 +18511,7 @@
         <v>5.919999999999993</v>
       </c>
       <c r="K359" t="n">
-        <v>7.692307692307653</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>2.959000000000001</v>
@@ -18562,7 +18562,7 @@
         <v>5.939999999999992</v>
       </c>
       <c r="K360" t="n">
-        <v>-3.703703703703606</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L360" t="n">
         <v>2.957000000000001</v>
@@ -18613,7 +18613,7 @@
         <v>5.939999999999992</v>
       </c>
       <c r="K361" t="n">
-        <v>18.18181818181807</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L361" t="n">
         <v>2.955000000000001</v>
@@ -18664,7 +18664,7 @@
         <v>5.939999999999992</v>
       </c>
       <c r="K362" t="n">
-        <v>23.80952380952384</v>
+        <v>20.00000000000089</v>
       </c>
       <c r="L362" t="n">
         <v>2.951000000000001</v>
@@ -18715,7 +18715,7 @@
         <v>5.939999999999992</v>
       </c>
       <c r="K363" t="n">
-        <v>11.11111111111108</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>2.952000000000001</v>
@@ -18766,7 +18766,7 @@
         <v>5.959999999999992</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L364" t="n">
         <v>2.950000000000002</v>
@@ -18817,7 +18817,7 @@
         <v>5.989999999999991</v>
       </c>
       <c r="K365" t="n">
-        <v>13.04347826086951</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L365" t="n">
         <v>2.951000000000001</v>
@@ -18868,7 +18868,7 @@
         <v>6.009999999999991</v>
       </c>
       <c r="K366" t="n">
-        <v>25.00000000000018</v>
+        <v>27.27272727272767</v>
       </c>
       <c r="L366" t="n">
         <v>2.954000000000002</v>
@@ -18919,7 +18919,7 @@
         <v>6.009999999999991</v>
       </c>
       <c r="K367" t="n">
-        <v>25.00000000000018</v>
+        <v>27.27272727272767</v>
       </c>
       <c r="L367" t="n">
         <v>2.957000000000002</v>
@@ -18970,7 +18970,7 @@
         <v>6.019999999999991</v>
       </c>
       <c r="K368" t="n">
-        <v>25.00000000000018</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L368" t="n">
         <v>2.961000000000002</v>
@@ -19021,7 +19021,7 @@
         <v>6.019999999999991</v>
       </c>
       <c r="K369" t="n">
-        <v>10.00000000000009</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L369" t="n">
         <v>2.963000000000002</v>
@@ -19072,7 +19072,7 @@
         <v>6.019999999999991</v>
       </c>
       <c r="K370" t="n">
-        <v>10.00000000000009</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L370" t="n">
         <v>2.967000000000002</v>
@@ -19123,7 +19123,7 @@
         <v>6.049999999999991</v>
       </c>
       <c r="K371" t="n">
-        <v>-4.347826086956648</v>
+        <v>9.090909090909017</v>
       </c>
       <c r="L371" t="n">
         <v>2.968000000000002</v>
@@ -19174,7 +19174,7 @@
         <v>6.089999999999991</v>
       </c>
       <c r="K372" t="n">
-        <v>3.999999999999943</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L372" t="n">
         <v>2.973000000000002</v>
@@ -19225,7 +19225,7 @@
         <v>6.11999999999999</v>
       </c>
       <c r="K373" t="n">
-        <v>13.04347826086985</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L373" t="n">
         <v>2.975000000000002</v>
@@ -19276,7 +19276,7 @@
         <v>6.13999999999999</v>
       </c>
       <c r="K374" t="n">
-        <v>16.66666666666691</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L374" t="n">
         <v>2.981000000000003</v>
@@ -19327,7 +19327,7 @@
         <v>6.14999999999999</v>
       </c>
       <c r="K375" t="n">
-        <v>12.00000000000009</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>2.983000000000002</v>
@@ -19378,7 +19378,7 @@
         <v>6.159999999999989</v>
       </c>
       <c r="K376" t="n">
-        <v>15.38461538461562</v>
+        <v>6.666666666666885</v>
       </c>
       <c r="L376" t="n">
         <v>2.984000000000002</v>
@@ -19429,7 +19429,7 @@
         <v>6.159999999999989</v>
       </c>
       <c r="K377" t="n">
-        <v>15.38461538461562</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>2.985000000000002</v>
@@ -19480,7 +19480,7 @@
         <v>6.169999999999989</v>
       </c>
       <c r="K378" t="n">
-        <v>18.51851851851873</v>
+        <v>6.666666666666588</v>
       </c>
       <c r="L378" t="n">
         <v>2.986000000000002</v>
@@ -19531,7 +19531,7 @@
         <v>6.179999999999989</v>
       </c>
       <c r="K379" t="n">
-        <v>7.692307692307811</v>
+        <v>0</v>
       </c>
       <c r="L379" t="n">
         <v>2.986000000000002</v>
@@ -19582,7 +19582,7 @@
         <v>6.189999999999989</v>
       </c>
       <c r="K380" t="n">
-        <v>20.00000000000021</v>
+        <v>28.57142857142902</v>
       </c>
       <c r="L380" t="n">
         <v>2.987000000000002</v>
@@ -19633,7 +19633,7 @@
         <v>6.199999999999989</v>
       </c>
       <c r="K381" t="n">
-        <v>23.07692307692326</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L381" t="n">
         <v>2.992000000000002</v>
@@ -19684,7 +19684,7 @@
         <v>6.199999999999989</v>
       </c>
       <c r="K382" t="n">
-        <v>23.07692307692326</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L382" t="n">
         <v>2.993000000000001</v>
@@ -19735,7 +19735,7 @@
         <v>6.199999999999989</v>
       </c>
       <c r="K383" t="n">
-        <v>23.07692307692326</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L383" t="n">
         <v>2.997000000000001</v>
@@ -19786,7 +19786,7 @@
         <v>6.219999999999988</v>
       </c>
       <c r="K384" t="n">
-        <v>38.46153846153888</v>
+        <v>71.4285714285727</v>
       </c>
       <c r="L384" t="n">
         <v>3.001000000000001</v>
@@ -19837,7 +19837,7 @@
         <v>6.239999999999988</v>
       </c>
       <c r="K385" t="n">
-        <v>20.00000000000021</v>
+        <v>25</v>
       </c>
       <c r="L385" t="n">
         <v>3.004000000000001</v>
@@ -19888,7 +19888,7 @@
         <v>6.249999999999988</v>
       </c>
       <c r="K386" t="n">
-        <v>16.66666666666691</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L386" t="n">
         <v>3.007000000000001</v>
@@ -19939,7 +19939,7 @@
         <v>6.279999999999987</v>
       </c>
       <c r="K387" t="n">
-        <v>3.703703703703844</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L387" t="n">
         <v>3.007000000000001</v>
@@ -19990,7 +19990,7 @@
         <v>6.289999999999987</v>
       </c>
       <c r="K388" t="n">
-        <v>3.703703703703679</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L388" t="n">
         <v>3.007000000000001</v>
@@ -20041,7 +20041,7 @@
         <v>6.299999999999986</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L389" t="n">
         <v>3.007000000000001</v>
@@ -20092,7 +20092,7 @@
         <v>6.319999999999986</v>
       </c>
       <c r="K390" t="n">
-        <v>6.666666666666628</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>3.008</v>
@@ -20143,7 +20143,7 @@
         <v>6.319999999999986</v>
       </c>
       <c r="K391" t="n">
-        <v>18.51851851851879</v>
+        <v>0</v>
       </c>
       <c r="L391" t="n">
         <v>3.008</v>
@@ -20194,7 +20194,7 @@
         <v>6.339999999999986</v>
       </c>
       <c r="K392" t="n">
-        <v>-4</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L392" t="n">
         <v>3.006000000000001</v>
@@ -20245,7 +20245,7 @@
         <v>6.339999999999986</v>
       </c>
       <c r="K393" t="n">
-        <v>9.090909090909292</v>
+        <v>-33.33333333333371</v>
       </c>
       <c r="L393" t="n">
         <v>3.004000000000001</v>
@@ -20296,7 +20296,7 @@
         <v>6.359999999999985</v>
       </c>
       <c r="K394" t="n">
-        <v>-9.090909090909292</v>
+        <v>-33.33333333333371</v>
       </c>
       <c r="L394" t="n">
         <v>2.998000000000001</v>
@@ -20347,7 +20347,7 @@
         <v>6.369999999999985</v>
       </c>
       <c r="K395" t="n">
-        <v>-9.090909090909292</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L395" t="n">
         <v>2.993000000000001</v>
@@ -20398,7 +20398,7 @@
         <v>6.389999999999985</v>
       </c>
       <c r="K396" t="n">
-        <v>-4.347826086956714</v>
+        <v>-9.090909090909495</v>
       </c>
       <c r="L396" t="n">
         <v>2.989000000000001</v>
@@ -20449,7 +20449,7 @@
         <v>6.399999999999984</v>
       </c>
       <c r="K397" t="n">
-        <v>-8.333333333333519</v>
+        <v>-27.27272727272767</v>
       </c>
       <c r="L397" t="n">
         <v>2.987000000000001</v>
@@ -20500,7 +20500,7 @@
         <v>6.409999999999984</v>
       </c>
       <c r="K398" t="n">
-        <v>-8.333333333333519</v>
+        <v>-9.090909090909495</v>
       </c>
       <c r="L398" t="n">
         <v>2.985000000000001</v>
@@ -20551,7 +20551,7 @@
         <v>6.439999999999984</v>
       </c>
       <c r="K399" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>2.987000000000001</v>
@@ -20602,7 +20602,7 @@
         <v>6.469999999999983</v>
       </c>
       <c r="K400" t="n">
-        <v>-7.142857142857302</v>
+        <v>-20.00000000000029</v>
       </c>
       <c r="L400" t="n">
         <v>2.984</v>
@@ -20653,7 +20653,7 @@
         <v>6.469999999999983</v>
       </c>
       <c r="K401" t="n">
-        <v>-11.11111111111128</v>
+        <v>-7.692307692308034</v>
       </c>
       <c r="L401" t="n">
         <v>2.981</v>
@@ -20704,7 +20704,7 @@
         <v>6.489999999999982</v>
       </c>
       <c r="K402" t="n">
-        <v>-17.24137931034513</v>
+        <v>-20.00000000000059</v>
       </c>
       <c r="L402" t="n">
         <v>2.978</v>
@@ -20755,7 +20755,7 @@
         <v>6.499999999999982</v>
       </c>
       <c r="K403" t="n">
-        <v>-20.00000000000029</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L403" t="n">
         <v>2.974</v>
@@ -20806,7 +20806,7 @@
         <v>6.519999999999982</v>
       </c>
       <c r="K404" t="n">
-        <v>-20.00000000000029</v>
+        <v>6.666666666666962</v>
       </c>
       <c r="L404" t="n">
         <v>2.974</v>
@@ -20857,7 +20857,7 @@
         <v>6.519999999999982</v>
       </c>
       <c r="K405" t="n">
-        <v>-14.28571428571444</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L405" t="n">
         <v>2.975</v>
@@ -20908,7 +20908,7 @@
         <v>6.529999999999982</v>
       </c>
       <c r="K406" t="n">
-        <v>-21.4285714285719</v>
+        <v>-7.692307692308034</v>
       </c>
       <c r="L406" t="n">
         <v>2.973</v>
@@ -20959,7 +20959,7 @@
         <v>6.529999999999982</v>
       </c>
       <c r="K407" t="n">
-        <v>-12.00000000000036</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L407" t="n">
         <v>2.972</v>
@@ -21010,7 +21010,7 @@
         <v>6.549999999999981</v>
       </c>
       <c r="K408" t="n">
-        <v>-7.692307692307863</v>
+        <v>-27.27272727272767</v>
       </c>
       <c r="L408" t="n">
         <v>2.972</v>
@@ -21061,7 +21061,7 @@
         <v>6.549999999999981</v>
       </c>
       <c r="K409" t="n">
-        <v>-4.000000000000178</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>2.969</v>
@@ -21112,7 +21112,7 @@
         <v>6.599999999999981</v>
       </c>
       <c r="K410" t="n">
-        <v>-28.57142857142896</v>
+        <v>-38.46153846153888</v>
       </c>
       <c r="L410" t="n">
         <v>2.964</v>
@@ -21163,7 +21163,7 @@
         <v>6.629999999999981</v>
       </c>
       <c r="K411" t="n">
-        <v>-16.12903225806471</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>2.961999999999999</v>
@@ -21214,7 +21214,7 @@
         <v>6.659999999999981</v>
       </c>
       <c r="K412" t="n">
-        <v>-18.75000000000031</v>
+        <v>-12.50000000000014</v>
       </c>
       <c r="L412" t="n">
         <v>2.959</v>
@@ -21265,7 +21265,7 @@
         <v>6.66999999999998</v>
       </c>
       <c r="K413" t="n">
-        <v>-21.21212121212164</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L413" t="n">
         <v>2.956</v>
@@ -21316,7 +21316,7 @@
         <v>6.67999999999998</v>
       </c>
       <c r="K414" t="n">
-        <v>-12.50000000000021</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L414" t="n">
         <v>2.952</v>
@@ -21367,7 +21367,7 @@
         <v>6.69999999999998</v>
       </c>
       <c r="K415" t="n">
-        <v>-3.030303030303014</v>
+        <v>-5.88235294117641</v>
       </c>
       <c r="L415" t="n">
         <v>2.950000000000001</v>
@@ -21418,7 +21418,7 @@
         <v>6.719999999999979</v>
       </c>
       <c r="K416" t="n">
-        <v>-15.15151515151534</v>
+        <v>-15.78947368421061</v>
       </c>
       <c r="L416" t="n">
         <v>2.947000000000001</v>
@@ -21469,7 +21469,7 @@
         <v>6.749999999999979</v>
       </c>
       <c r="K417" t="n">
-        <v>-2.85714285714297</v>
+        <v>-10.00000000000013</v>
       </c>
       <c r="L417" t="n">
         <v>2.947000000000001</v>
@@ -21520,7 +21520,7 @@
         <v>6.769999999999978</v>
       </c>
       <c r="K418" t="n">
-        <v>-11.1111111111113</v>
+        <v>-18.18181818181844</v>
       </c>
       <c r="L418" t="n">
         <v>2.943000000000001</v>
@@ -21571,7 +21571,7 @@
         <v>6.769999999999978</v>
       </c>
       <c r="K419" t="n">
-        <v>-21.2121212121215</v>
+        <v>5.88235294117644</v>
       </c>
       <c r="L419" t="n">
         <v>2.939000000000001</v>
@@ -21622,7 +21622,7 @@
         <v>6.779999999999978</v>
       </c>
       <c r="K420" t="n">
-        <v>-9.677419354838797</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L420" t="n">
         <v>2.941</v>
@@ -21673,7 +21673,7 @@
         <v>6.779999999999978</v>
       </c>
       <c r="K421" t="n">
-        <v>-9.677419354838797</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L421" t="n">
         <v>2.94</v>
@@ -21724,7 +21724,7 @@
         <v>6.789999999999978</v>
       </c>
       <c r="K422" t="n">
-        <v>-6.666666666666774</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L422" t="n">
         <v>2.941</v>
@@ -21775,7 +21775,7 @@
         <v>6.819999999999977</v>
       </c>
       <c r="K423" t="n">
-        <v>-12.50000000000021</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L423" t="n">
         <v>2.94</v>
@@ -21826,7 +21826,7 @@
         <v>6.839999999999977</v>
       </c>
       <c r="K424" t="n">
-        <v>-12.50000000000021</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L424" t="n">
         <v>2.94</v>
@@ -21877,7 +21877,7 @@
         <v>6.849999999999977</v>
       </c>
       <c r="K425" t="n">
-        <v>-15.15151515151547</v>
+        <v>-7.692307692308034</v>
       </c>
       <c r="L425" t="n">
         <v>2.937000000000001</v>
@@ -21928,7 +21928,7 @@
         <v>6.859999999999976</v>
       </c>
       <c r="K426" t="n">
-        <v>-9.090909090909177</v>
+        <v>-27.27272727272767</v>
       </c>
       <c r="L426" t="n">
         <v>2.937000000000001</v>
@@ -21979,7 +21979,7 @@
         <v>6.869999999999976</v>
       </c>
       <c r="K427" t="n">
-        <v>-11.76470588235314</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L427" t="n">
         <v>2.933000000000001</v>
@@ -22030,7 +22030,7 @@
         <v>6.879999999999976</v>
       </c>
       <c r="K428" t="n">
-        <v>-21.2121212121215</v>
+        <v>-27.27272727272767</v>
       </c>
       <c r="L428" t="n">
         <v>2.930000000000001</v>
@@ -22081,7 +22081,7 @@
         <v>6.889999999999976</v>
       </c>
       <c r="K429" t="n">
-        <v>-23.52941176470628</v>
+        <v>-45.45454545454666</v>
       </c>
       <c r="L429" t="n">
         <v>2.926000000000001</v>
@@ -22132,7 +22132,7 @@
         <v>6.889999999999976</v>
       </c>
       <c r="K430" t="n">
-        <v>-10.34482758620717</v>
+        <v>-45.45454545454666</v>
       </c>
       <c r="L430" t="n">
         <v>2.921000000000001</v>
@@ -22183,7 +22183,7 @@
         <v>6.889999999999976</v>
       </c>
       <c r="K431" t="n">
-        <v>-23.07692307692359</v>
+        <v>-40.00000000000089</v>
       </c>
       <c r="L431" t="n">
         <v>2.916000000000001</v>
@@ -22234,7 +22234,7 @@
         <v>6.949999999999976</v>
       </c>
       <c r="K432" t="n">
-        <v>10.34482758620699</v>
+        <v>38.46153846153862</v>
       </c>
       <c r="L432" t="n">
         <v>2.918000000000001</v>
@@ -22285,7 +22285,7 @@
         <v>6.999999999999976</v>
       </c>
       <c r="K433" t="n">
-        <v>-3.030303030303006</v>
+        <v>-12.50000000000007</v>
       </c>
       <c r="L433" t="n">
         <v>2.918000000000001</v>
@@ -22336,7 +22336,7 @@
         <v>7.009999999999977</v>
       </c>
       <c r="K434" t="n">
-        <v>-9.090909090909262</v>
+        <v>-12.5</v>
       </c>
       <c r="L434" t="n">
         <v>2.915000000000001</v>
@@ -22387,7 +22387,7 @@
         <v>7.019999999999976</v>
       </c>
       <c r="K435" t="n">
-        <v>-18.75000000000021</v>
+        <v>-25</v>
       </c>
       <c r="L435" t="n">
         <v>2.912000000000001</v>
@@ -22438,7 +22438,7 @@
         <v>7.029999999999976</v>
       </c>
       <c r="K436" t="n">
-        <v>-16.12903225806476</v>
+        <v>-25</v>
       </c>
       <c r="L436" t="n">
         <v>2.907000000000001</v>
@@ -22489,7 +22489,7 @@
         <v>7.029999999999976</v>
       </c>
       <c r="K437" t="n">
-        <v>-28.57142857142884</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L437" t="n">
         <v>2.903000000000001</v>
@@ -22540,7 +22540,7 @@
         <v>7.029999999999976</v>
       </c>
       <c r="K438" t="n">
-        <v>-23.07692307692328</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L438" t="n">
         <v>2.900000000000001</v>
@@ -22591,7 +22591,7 @@
         <v>7.029999999999976</v>
       </c>
       <c r="K439" t="n">
-        <v>-23.07692307692328</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L439" t="n">
         <v>2.898000000000001</v>
@@ -22642,7 +22642,7 @@
         <v>7.029999999999976</v>
       </c>
       <c r="K440" t="n">
-        <v>-28.00000000000031</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L440" t="n">
         <v>2.896000000000002</v>
@@ -22693,7 +22693,7 @@
         <v>7.039999999999976</v>
       </c>
       <c r="K441" t="n">
-        <v>-23.07692307692328</v>
+        <v>-77.77777777777773</v>
       </c>
       <c r="L441" t="n">
         <v>2.895000000000002</v>
@@ -22744,7 +22744,7 @@
         <v>7.049999999999976</v>
       </c>
       <c r="K442" t="n">
-        <v>-23.07692307692328</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L442" t="n">
         <v>2.887000000000001</v>
@@ -22795,7 +22795,7 @@
         <v>7.069999999999975</v>
       </c>
       <c r="K443" t="n">
-        <v>-4.000000000000121</v>
+        <v>0</v>
       </c>
       <c r="L443" t="n">
         <v>2.886000000000001</v>
@@ -22846,7 +22846,7 @@
         <v>7.079999999999975</v>
       </c>
       <c r="K444" t="n">
-        <v>-16.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L444" t="n">
         <v>2.885000000000002</v>
@@ -22897,7 +22897,7 @@
         <v>7.089999999999975</v>
       </c>
       <c r="K445" t="n">
-        <v>-8.333333333333396</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L445" t="n">
         <v>2.886000000000001</v>
@@ -22948,7 +22948,7 @@
         <v>7.089999999999975</v>
       </c>
       <c r="K446" t="n">
-        <v>-13.04347826086975</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L446" t="n">
         <v>2.888000000000001</v>
@@ -22999,7 +22999,7 @@
         <v>7.099999999999975</v>
       </c>
       <c r="K447" t="n">
-        <v>-13.04347826086956</v>
+        <v>14.28571428571492</v>
       </c>
       <c r="L447" t="n">
         <v>2.889000000000002</v>
@@ -23050,7 +23050,7 @@
         <v>7.109999999999975</v>
       </c>
       <c r="K448" t="n">
-        <v>-4.347826086956648</v>
+        <v>25.00000000000055</v>
       </c>
       <c r="L448" t="n">
         <v>2.891000000000001</v>
@@ -23101,7 +23101,7 @@
         <v>7.109999999999975</v>
       </c>
       <c r="K449" t="n">
-        <v>0</v>
+        <v>25.00000000000055</v>
       </c>
       <c r="L449" t="n">
         <v>2.893000000000002</v>
@@ -23152,7 +23152,7 @@
         <v>7.129999999999974</v>
       </c>
       <c r="K450" t="n">
-        <v>8.333333333333396</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L450" t="n">
         <v>2.897000000000002</v>
@@ -23203,7 +23203,7 @@
         <v>7.129999999999974</v>
       </c>
       <c r="K451" t="n">
-        <v>8.333333333333396</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L451" t="n">
         <v>2.900000000000001</v>
@@ -23254,7 +23254,7 @@
         <v>7.139999999999974</v>
       </c>
       <c r="K452" t="n">
-        <v>-15.78947368421061</v>
+        <v>42.85714285714413</v>
       </c>
       <c r="L452" t="n">
         <v>2.905000000000002</v>
@@ -23305,7 +23305,7 @@
         <v>7.189999999999974</v>
       </c>
       <c r="K453" t="n">
-        <v>36.84210526315825</v>
+        <v>81.81818181818277</v>
       </c>
       <c r="L453" t="n">
         <v>2.913000000000002</v>
@@ -23356,7 +23356,7 @@
         <v>7.209999999999974</v>
       </c>
       <c r="K454" t="n">
-        <v>30.0000000000004</v>
+        <v>50.00000000000037</v>
       </c>
       <c r="L454" t="n">
         <v>2.920000000000002</v>
@@ -23407,7 +23407,7 @@
         <v>7.229999999999974</v>
       </c>
       <c r="K455" t="n">
-        <v>23.80952380952403</v>
+        <v>28.57142857142884</v>
       </c>
       <c r="L455" t="n">
         <v>2.924000000000002</v>
@@ -23458,7 +23458,7 @@
         <v>7.259999999999973</v>
       </c>
       <c r="K456" t="n">
-        <v>13.04347826086985</v>
+        <v>12.50000000000014</v>
       </c>
       <c r="L456" t="n">
         <v>2.925000000000002</v>
@@ -23509,7 +23509,7 @@
         <v>7.279999999999973</v>
       </c>
       <c r="K457" t="n">
-        <v>4.000000000000149</v>
+        <v>-5.88235294117641</v>
       </c>
       <c r="L457" t="n">
         <v>2.925000000000002</v>
@@ -23560,7 +23560,7 @@
         <v>7.309999999999972</v>
       </c>
       <c r="K458" t="n">
-        <v>14.28571428571451</v>
+        <v>10.00000000000013</v>
       </c>
       <c r="L458" t="n">
         <v>2.927000000000002</v>
@@ -23611,7 +23611,7 @@
         <v>7.319999999999972</v>
       </c>
       <c r="K459" t="n">
-        <v>17.24137931034518</v>
+        <v>5.263157894737026</v>
       </c>
       <c r="L459" t="n">
         <v>2.930000000000002</v>
@@ -23662,7 +23662,7 @@
         <v>7.319999999999972</v>
       </c>
       <c r="K460" t="n">
-        <v>17.24137931034518</v>
+        <v>5.263157894737026</v>
       </c>
       <c r="L460" t="n">
         <v>2.931000000000002</v>
@@ -23713,7 +23713,7 @@
         <v>7.329999999999972</v>
       </c>
       <c r="K461" t="n">
-        <v>17.24137931034503</v>
+        <v>5.263157894736794</v>
       </c>
       <c r="L461" t="n">
         <v>2.933000000000002</v>
@@ -23764,7 +23764,7 @@
         <v>7.369999999999972</v>
       </c>
       <c r="K462" t="n">
-        <v>6.250000000000087</v>
+        <v>-44.44444444444499</v>
       </c>
       <c r="L462" t="n">
         <v>2.930000000000002</v>
@@ -23815,7 +23815,7 @@
         <v>7.369999999999972</v>
       </c>
       <c r="K463" t="n">
-        <v>0</v>
+        <v>-37.50000000000063</v>
       </c>
       <c r="L463" t="n">
         <v>2.922000000000001</v>
@@ -23866,7 +23866,7 @@
         <v>7.369999999999972</v>
       </c>
       <c r="K464" t="n">
-        <v>3.448275862068933</v>
+        <v>-28.57142857142902</v>
       </c>
       <c r="L464" t="n">
         <v>2.916000000000002</v>
@@ -23917,7 +23917,7 @@
         <v>7.369999999999972</v>
       </c>
       <c r="K465" t="n">
-        <v>0</v>
+        <v>-9.090909090909422</v>
       </c>
       <c r="L465" t="n">
         <v>2.912000000000002</v>
@@ -23968,7 +23968,7 @@
         <v>7.369999999999972</v>
       </c>
       <c r="K466" t="n">
-        <v>0</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L466" t="n">
         <v>2.911000000000002</v>
@@ -24019,7 +24019,7 @@
         <v>7.379999999999972</v>
       </c>
       <c r="K467" t="n">
-        <v>7.142857142857211</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L467" t="n">
         <v>2.913000000000002</v>
@@ -24070,7 +24070,7 @@
         <v>7.379999999999972</v>
       </c>
       <c r="K468" t="n">
-        <v>3.703703703703819</v>
+        <v>-33.33333333333309</v>
       </c>
       <c r="L468" t="n">
         <v>2.912000000000002</v>
@@ -24121,7 +24121,7 @@
         <v>7.389999999999972</v>
       </c>
       <c r="K469" t="n">
-        <v>0</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L469" t="n">
         <v>2.909000000000002</v>
@@ -24172,7 +24172,7 @@
         <v>7.399999999999972</v>
       </c>
       <c r="K470" t="n">
-        <v>-11.11111111111113</v>
+        <v>-71.42857142857089</v>
       </c>
       <c r="L470" t="n">
         <v>2.905000000000002</v>
@@ -24223,7 +24223,7 @@
         <v>7.409999999999972</v>
       </c>
       <c r="K471" t="n">
-        <v>-7.142857142857211</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>2.901000000000002</v>
@@ -24274,7 +24274,7 @@
         <v>7.409999999999972</v>
       </c>
       <c r="K472" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>2.901000000000002</v>
@@ -24325,7 +24325,7 @@
         <v>7.409999999999972</v>
       </c>
       <c r="K473" t="n">
-        <v>-36.36363636363673</v>
+        <v>0</v>
       </c>
       <c r="L473" t="n">
         <v>2.901000000000002</v>
@@ -24376,7 +24376,7 @@
         <v>7.409999999999972</v>
       </c>
       <c r="K474" t="n">
-        <v>-30.0000000000004</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>2.901000000000002</v>
@@ -24427,7 +24427,7 @@
         <v>7.409999999999972</v>
       </c>
       <c r="K475" t="n">
-        <v>-22.22222222222249</v>
+        <v>0</v>
       </c>
       <c r="L475" t="n">
         <v>2.901000000000002</v>
@@ -24478,7 +24478,7 @@
         <v>7.409999999999972</v>
       </c>
       <c r="K476" t="n">
-        <v>-6.666666666666885</v>
+        <v>-33.33333333333481</v>
       </c>
       <c r="L476" t="n">
         <v>2.901000000000002</v>
@@ -24529,7 +24529,7 @@
         <v>7.409999999999972</v>
       </c>
       <c r="K477" t="n">
-        <v>7.692307692307587</v>
+        <v>-33.33333333333481</v>
       </c>
       <c r="L477" t="n">
         <v>2.900000000000001</v>
@@ -24580,7 +24580,7 @@
         <v>7.409999999999972</v>
       </c>
       <c r="K478" t="n">
-        <v>-20.00000000000009</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>2.899000000000001</v>
@@ -24631,7 +24631,7 @@
         <v>7.409999999999972</v>
       </c>
       <c r="K479" t="n">
-        <v>-33.33333333333366</v>
+        <v>100</v>
       </c>
       <c r="L479" t="n">
         <v>2.899000000000001</v>
@@ -24682,7 +24682,7 @@
         <v>7.419999999999972</v>
       </c>
       <c r="K480" t="n">
-        <v>-20.00000000000009</v>
+        <v>100.0000000000044</v>
       </c>
       <c r="L480" t="n">
         <v>2.901000000000001</v>
@@ -24784,7 +24784,7 @@
         <v>7.449999999999972</v>
       </c>
       <c r="K482" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L482" t="n">
         <v>2.897000000000001</v>
@@ -24835,7 +24835,7 @@
         <v>7.449999999999972</v>
       </c>
       <c r="K483" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L483" t="n">
         <v>2.895000000000001</v>
@@ -24886,7 +24886,7 @@
         <v>7.459999999999972</v>
       </c>
       <c r="K484" t="n">
-        <v>-33.33333333333317</v>
+        <v>-59.99999999999982</v>
       </c>
       <c r="L484" t="n">
         <v>2.892000000000002</v>
@@ -24937,7 +24937,7 @@
         <v>7.459999999999972</v>
       </c>
       <c r="K485" t="n">
-        <v>-33.33333333333317</v>
+        <v>-59.99999999999982</v>
       </c>
       <c r="L485" t="n">
         <v>2.889000000000002</v>
@@ -24988,7 +24988,7 @@
         <v>7.469999999999972</v>
       </c>
       <c r="K486" t="n">
-        <v>-39.99999999999982</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L486" t="n">
         <v>2.885000000000002</v>
@@ -25039,7 +25039,7 @@
         <v>7.469999999999972</v>
       </c>
       <c r="K487" t="n">
-        <v>-55.55555555555593</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L487" t="n">
         <v>2.881000000000002</v>
@@ -25090,7 +25090,7 @@
         <v>7.489999999999972</v>
       </c>
       <c r="K488" t="n">
-        <v>-63.63636363636422</v>
+        <v>-75</v>
       </c>
       <c r="L488" t="n">
         <v>2.875000000000002</v>
@@ -25141,7 +25141,7 @@
         <v>7.499999999999972</v>
       </c>
       <c r="K489" t="n">
-        <v>-63.63636363636382</v>
+        <v>-100</v>
       </c>
       <c r="L489" t="n">
         <v>2.868000000000002</v>
@@ -25192,7 +25192,7 @@
         <v>7.509999999999971</v>
       </c>
       <c r="K490" t="n">
-        <v>-45.45454545454593</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L490" t="n">
         <v>2.861000000000002</v>
@@ -25243,7 +25243,7 @@
         <v>7.529999999999971</v>
       </c>
       <c r="K491" t="n">
-        <v>-66.66666666666717</v>
+        <v>-75.00000000000084</v>
       </c>
       <c r="L491" t="n">
         <v>2.855000000000002</v>
@@ -25294,7 +25294,7 @@
         <v>7.529999999999971</v>
       </c>
       <c r="K492" t="n">
-        <v>-66.66666666666717</v>
+        <v>-75.00000000000084</v>
       </c>
       <c r="L492" t="n">
         <v>2.849000000000002</v>
@@ -25345,7 +25345,7 @@
         <v>7.569999999999971</v>
       </c>
       <c r="K493" t="n">
-        <v>-75.00000000000043</v>
+        <v>-81.81818181818251</v>
       </c>
       <c r="L493" t="n">
         <v>2.839000000000003</v>
@@ -25396,7 +25396,7 @@
         <v>7.569999999999971</v>
       </c>
       <c r="K494" t="n">
-        <v>-75.00000000000043</v>
+        <v>-81.81818181818251</v>
       </c>
       <c r="L494" t="n">
         <v>2.830000000000003</v>
@@ -25447,7 +25447,7 @@
         <v>7.579999999999972</v>
       </c>
       <c r="K495" t="n">
-        <v>-64.70588235294113</v>
+        <v>-63.63636363636382</v>
       </c>
       <c r="L495" t="n">
         <v>2.822000000000002</v>
@@ -25498,7 +25498,7 @@
         <v>7.589999999999971</v>
       </c>
       <c r="K496" t="n">
-        <v>-55.55555555555569</v>
+        <v>-50.00000000000037</v>
       </c>
       <c r="L496" t="n">
         <v>2.816000000000003</v>
@@ -25549,7 +25549,7 @@
         <v>7.599999999999971</v>
       </c>
       <c r="K497" t="n">
-        <v>-57.89473684210535</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L497" t="n">
         <v>2.809000000000002</v>
@@ -25600,7 +25600,7 @@
         <v>7.609999999999971</v>
       </c>
       <c r="K498" t="n">
-        <v>-60.00000000000026</v>
+        <v>-45.45454545454593</v>
       </c>
       <c r="L498" t="n">
         <v>2.803000000000003</v>
@@ -25651,7 +25651,7 @@
         <v>7.619999999999971</v>
       </c>
       <c r="K499" t="n">
-        <v>-61.90476190476213</v>
+        <v>-63.63636363636382</v>
       </c>
       <c r="L499" t="n">
         <v>2.797000000000003</v>
@@ -25702,7 +25702,7 @@
         <v>7.629999999999971</v>
       </c>
       <c r="K500" t="n">
-        <v>-61.90476190476234</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L500" t="n">
         <v>2.791000000000003</v>
@@ -25753,7 +25753,7 @@
         <v>7.629999999999971</v>
       </c>
       <c r="K501" t="n">
-        <v>-55.55555555555597</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L501" t="n">
         <v>2.787000000000003</v>
@@ -25804,7 +25804,7 @@
         <v>7.64999999999997</v>
       </c>
       <c r="K502" t="n">
-        <v>-60.00000000000053</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L502" t="n">
         <v>2.781000000000003</v>
@@ -25855,7 +25855,7 @@
         <v>7.67999999999997</v>
       </c>
       <c r="K503" t="n">
-        <v>-39.13043478260887</v>
+        <v>9.090909090909348</v>
       </c>
       <c r="L503" t="n">
         <v>2.782000000000003</v>
@@ -25906,7 +25906,7 @@
         <v>7.67999999999997</v>
       </c>
       <c r="K504" t="n">
-        <v>-36.36363636363658</v>
+        <v>0</v>
       </c>
       <c r="L504" t="n">
         <v>2.783000000000003</v>
@@ -25957,7 +25957,7 @@
         <v>7.67999999999997</v>
       </c>
       <c r="K505" t="n">
-        <v>-36.36363636363658</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L505" t="n">
         <v>2.783000000000003</v>
@@ -26008,7 +26008,7 @@
         <v>7.68999999999997</v>
       </c>
       <c r="K506" t="n">
-        <v>-27.27272727272755</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L506" t="n">
         <v>2.783000000000003</v>
@@ -26059,7 +26059,7 @@
         <v>7.699999999999971</v>
       </c>
       <c r="K507" t="n">
-        <v>-21.73913043478266</v>
+        <v>33.33333333333366</v>
       </c>
       <c r="L507" t="n">
         <v>2.785000000000003</v>
@@ -26110,7 +26110,7 @@
         <v>7.709999999999971</v>
       </c>
       <c r="K508" t="n">
-        <v>-9.090909090909145</v>
+        <v>55.55555555555544</v>
       </c>
       <c r="L508" t="n">
         <v>2.789000000000002</v>
@@ -26161,7 +26161,7 @@
         <v>7.709999999999971</v>
       </c>
       <c r="K509" t="n">
-        <v>-4.761904761904892</v>
+        <v>50</v>
       </c>
       <c r="L509" t="n">
         <v>2.794000000000003</v>
@@ -26212,7 +26212,7 @@
         <v>7.72999999999997</v>
       </c>
       <c r="K510" t="n">
-        <v>-18.18181818181829</v>
+        <v>20.00000000000009</v>
       </c>
       <c r="L510" t="n">
         <v>2.796000000000002</v>
@@ -26263,7 +26263,7 @@
         <v>7.72999999999997</v>
       </c>
       <c r="K511" t="n">
-        <v>-10.00000000000004</v>
+        <v>50</v>
       </c>
       <c r="L511" t="n">
         <v>2.798000000000003</v>
@@ -26314,7 +26314,7 @@
         <v>7.72999999999997</v>
       </c>
       <c r="K512" t="n">
-        <v>-10.00000000000004</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L512" t="n">
         <v>2.802000000000002</v>
@@ -26365,7 +26365,7 @@
         <v>7.72999999999997</v>
       </c>
       <c r="K513" t="n">
-        <v>12.50000000000007</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L513" t="n">
         <v>2.803000000000003</v>
@@ -26416,7 +26416,7 @@
         <v>7.73999999999997</v>
       </c>
       <c r="K514" t="n">
-        <v>17.64705882352966</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L514" t="n">
         <v>2.805000000000002</v>
@@ -26467,7 +26467,7 @@
         <v>7.74999999999997</v>
       </c>
       <c r="K515" t="n">
-        <v>5.88235294117641</v>
+        <v>0</v>
       </c>
       <c r="L515" t="n">
         <v>2.806000000000003</v>
@@ -26518,7 +26518,7 @@
         <v>7.74999999999997</v>
       </c>
       <c r="K516" t="n">
-        <v>0</v>
+        <v>-20.00000000000089</v>
       </c>
       <c r="L516" t="n">
         <v>2.806000000000003</v>
@@ -26569,7 +26569,7 @@
         <v>7.78999999999997</v>
       </c>
       <c r="K517" t="n">
-        <v>26.31578947368431</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L517" t="n">
         <v>2.809000000000003</v>

--- a/BackTest/2019-10-16 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-16 BackTest ANKR.xlsx
@@ -2516,20 +2516,14 @@
         <v>2.693333333333329</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>2.66</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,20 +2551,14 @@
         <v>2.692666666666662</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2598,20 +2586,14 @@
         <v>2.691999999999995</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>2.66</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2639,20 +2621,14 @@
         <v>2.691333333333329</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>2.66</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2680,20 +2656,14 @@
         <v>2.690999999999996</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>2.66</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2721,20 +2691,14 @@
         <v>2.690166666666663</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2762,20 +2726,14 @@
         <v>2.68933333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>2.66</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2803,20 +2761,14 @@
         <v>2.688499999999997</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2844,20 +2796,14 @@
         <v>2.68783333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>2.66</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2885,20 +2831,14 @@
         <v>2.686999999999997</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>2.65</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2926,20 +2866,14 @@
         <v>2.686499999999997</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2967,20 +2901,14 @@
         <v>2.68583333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>2.66</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3008,20 +2936,14 @@
         <v>2.684999999999997</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>2.65</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3049,20 +2971,14 @@
         <v>2.683833333333331</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>2.64</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3090,20 +3006,14 @@
         <v>2.682833333333331</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>2.64</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3131,20 +3041,14 @@
         <v>2.681833333333331</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>2.64</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3172,20 +3076,14 @@
         <v>2.680666666666665</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>2.63</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3213,20 +3111,14 @@
         <v>2.679833333333332</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>2.65</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3254,20 +3146,14 @@
         <v>2.678999999999998</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>2.64</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3295,20 +3181,14 @@
         <v>2.678499999999998</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>2.65</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3336,20 +3216,14 @@
         <v>2.677999999999998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>2.66</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3377,20 +3251,14 @@
         <v>2.677833333333332</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>2.65</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3418,20 +3286,14 @@
         <v>2.677499999999999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>2.68</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3459,20 +3321,14 @@
         <v>2.677333333333332</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>2.68</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3500,20 +3356,14 @@
         <v>2.677166666666666</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>2.69</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3541,20 +3391,14 @@
         <v>2.676833333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>2.68</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3582,20 +3426,14 @@
         <v>2.676499999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>2.68</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3623,20 +3461,14 @@
         <v>2.676333333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>2.69</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3664,20 +3496,14 @@
         <v>2.676166666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>2.69</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3705,20 +3531,14 @@
         <v>2.676</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>2.69</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3746,20 +3566,14 @@
         <v>2.676666666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>2.69</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3787,20 +3601,14 @@
         <v>2.677333333333334</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>2.68</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3828,20 +3636,14 @@
         <v>2.679166666666668</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>2.71</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3869,20 +3671,14 @@
         <v>2.681166666666668</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>2.81</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3917,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3956,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3995,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4034,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4073,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4112,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4151,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4190,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4229,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4268,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4307,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4346,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4385,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4424,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4463,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4498,15 +4234,11 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4537,15 +4269,11 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4580,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4619,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4658,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4697,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4736,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4771,16 +4479,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4913,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5053,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5193,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5333,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5473,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5508,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5543,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5578,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5613,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -10510,14 +10216,20 @@
         <v>3.01116666666667</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2.99</v>
+      </c>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10545,14 +10257,20 @@
         <v>3.008500000000003</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10580,14 +10298,20 @@
         <v>3.006333333333336</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2.95</v>
+      </c>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10615,14 +10339,20 @@
         <v>3.004166666666669</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2.95</v>
+      </c>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10650,14 +10380,20 @@
         <v>3.002000000000002</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2.95</v>
+      </c>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10685,14 +10421,20 @@
         <v>3.000333333333336</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2.93</v>
+      </c>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10720,14 +10462,20 @@
         <v>2.998166666666669</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2.93</v>
+      </c>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10755,14 +10503,20 @@
         <v>2.997000000000002</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2.93</v>
+      </c>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10790,14 +10544,20 @@
         <v>2.995500000000002</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2.94</v>
+      </c>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10832,7 +10592,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10860,14 +10624,20 @@
         <v>2.992833333333335</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10902,7 +10672,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10937,7 +10711,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10972,7 +10750,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11007,7 +10789,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11042,7 +10828,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11077,7 +10867,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11112,7 +10906,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +10945,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11182,7 +10984,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11217,7 +11023,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11252,7 +11062,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11287,7 +11101,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11322,7 +11140,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11357,7 +11179,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11392,7 +11218,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11427,7 +11257,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11462,7 +11296,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11497,7 +11335,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11532,7 +11374,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11567,7 +11413,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11602,7 +11452,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11637,7 +11491,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11672,7 +11530,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11707,7 +11569,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11742,7 +11608,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11777,7 +11647,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11812,7 +11686,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11847,7 +11725,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11882,7 +11764,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11917,7 +11803,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11952,7 +11842,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11987,7 +11881,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12022,7 +11920,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12057,7 +11959,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12092,7 +11998,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12127,7 +12037,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12162,7 +12076,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12197,7 +12115,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12232,7 +12154,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12267,7 +12193,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12232,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12337,7 +12271,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12372,7 +12310,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12407,7 +12349,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12442,7 +12388,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12477,7 +12427,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12512,7 +12466,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12547,7 +12505,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12582,7 +12544,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12617,7 +12583,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12652,7 +12622,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12687,7 +12661,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12722,7 +12700,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12757,7 +12739,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12792,7 +12778,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12827,7 +12817,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12862,7 +12856,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12897,7 +12895,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12932,7 +12934,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12967,7 +12973,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13002,7 +13012,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13037,7 +13051,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13072,7 +13090,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13107,7 +13129,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13142,7 +13168,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13177,7 +13207,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13212,7 +13246,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13247,7 +13285,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13282,7 +13324,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13317,7 +13363,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13352,7 +13402,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13387,7 +13441,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13422,7 +13480,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13519,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13492,7 +13558,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13527,7 +13597,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13562,7 +13636,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13597,7 +13675,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13632,7 +13714,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13667,7 +13753,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13702,7 +13792,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13737,7 +13831,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13772,7 +13870,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13807,7 +13909,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13842,7 +13948,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13877,7 +13987,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13912,7 +14026,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13947,7 +14065,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13982,7 +14104,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14017,7 +14143,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14052,7 +14182,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14087,7 +14221,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14122,7 +14260,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14157,7 +14299,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14192,7 +14338,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14227,7 +14377,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14262,7 +14416,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14297,7 +14455,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14332,7 +14494,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14367,7 +14533,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14402,7 +14572,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14437,7 +14611,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14472,7 +14650,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14507,7 +14689,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14542,7 +14728,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14577,7 +14767,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +14806,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14647,7 +14845,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14682,7 +14884,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14717,7 +14923,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14752,7 +14962,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14787,7 +15001,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14822,7 +15040,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14857,7 +15079,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14892,7 +15118,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14927,7 +15157,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14962,7 +15196,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14997,7 +15235,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15032,7 +15274,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15067,7 +15313,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15102,7 +15352,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15137,7 +15391,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15172,7 +15430,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15207,7 +15469,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15242,7 +15508,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15277,7 +15547,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15312,7 +15586,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15347,7 +15625,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15382,7 +15664,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15417,7 +15703,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15452,7 +15742,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15487,7 +15781,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15515,14 +15813,20 @@
         <v>2.974333333333336</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2.91</v>
+      </c>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15550,14 +15854,20 @@
         <v>2.973666666666669</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2.93</v>
+      </c>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15585,14 +15895,20 @@
         <v>2.972833333333336</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2.92</v>
+      </c>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15620,14 +15936,20 @@
         <v>2.971833333333336</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2.93</v>
+      </c>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15655,14 +15977,20 @@
         <v>2.970500000000003</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2.92</v>
+      </c>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15690,14 +16018,20 @@
         <v>2.969000000000003</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2.91</v>
+      </c>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15725,14 +16059,20 @@
         <v>2.967500000000002</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2.9</v>
+      </c>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15760,14 +16100,20 @@
         <v>2.966500000000003</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2.9</v>
+      </c>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15795,14 +16141,20 @@
         <v>2.965833333333336</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2.9</v>
+      </c>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15830,14 +16182,20 @@
         <v>2.964833333333336</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2.96</v>
+      </c>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15865,14 +16223,20 @@
         <v>2.963333333333336</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2.91</v>
+      </c>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15900,14 +16264,20 @@
         <v>2.961833333333336</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2.9</v>
+      </c>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15935,14 +16305,20 @@
         <v>2.960000000000002</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2.89</v>
+      </c>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -15970,14 +16346,20 @@
         <v>2.958166666666669</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2.88</v>
+      </c>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16005,14 +16387,20 @@
         <v>2.956166666666669</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2.88</v>
+      </c>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16040,14 +16428,20 @@
         <v>2.954333333333335</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2.88</v>
+      </c>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16075,14 +16469,20 @@
         <v>2.952333333333335</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2.88</v>
+      </c>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16110,14 +16510,20 @@
         <v>2.950333333333335</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2.88</v>
+      </c>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16145,14 +16551,20 @@
         <v>2.948166666666668</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2.89</v>
+      </c>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16180,14 +16592,20 @@
         <v>2.946333333333335</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2.88</v>
+      </c>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16215,14 +16633,20 @@
         <v>2.944000000000002</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2.9</v>
+      </c>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16257,7 +16681,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16285,14 +16713,20 @@
         <v>2.940166666666669</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2.9</v>
+      </c>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16320,14 +16754,20 @@
         <v>2.938500000000002</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2.9</v>
+      </c>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16355,14 +16795,20 @@
         <v>2.936833333333335</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2.89</v>
+      </c>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16390,14 +16836,20 @@
         <v>2.935333333333335</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2.9</v>
+      </c>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16425,14 +16877,20 @@
         <v>2.933833333333335</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2.9</v>
+      </c>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16467,7 +16925,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16502,7 +16964,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16537,7 +17003,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16572,7 +17042,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16607,7 +17081,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16642,7 +17120,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16677,7 +17159,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16712,7 +17198,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16747,7 +17237,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16782,7 +17276,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16817,7 +17315,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16852,7 +17354,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16887,7 +17393,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17432,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -16957,7 +17471,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -16992,7 +17510,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17027,7 +17549,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17062,7 +17588,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17097,7 +17627,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17132,7 +17666,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17167,7 +17705,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17202,7 +17744,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17237,7 +17783,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17272,7 +17822,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17307,7 +17861,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17342,7 +17900,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17377,7 +17939,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17412,7 +17978,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17447,7 +18017,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17482,7 +18056,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17517,7 +18095,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17552,7 +18134,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17587,7 +18173,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17622,7 +18212,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17657,7 +18251,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17692,7 +18290,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17727,7 +18329,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17762,7 +18368,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17797,7 +18407,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17832,7 +18446,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17867,7 +18485,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17902,7 +18524,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17937,7 +18563,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17972,7 +18602,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18000,14 +18634,20 @@
         <v>2.889000000000003</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>2.78</v>
+      </c>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18035,14 +18675,20 @@
         <v>2.88766666666667</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>2.79</v>
+      </c>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-16 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-16 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4972,440 +4972,380 @@
         <v>-179691652.7578424</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F140" t="n">
+        <v>81030.7583</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-179691652.7578424</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
         <v>2.65</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
+      <c r="C141" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F141" t="n">
+        <v>451643</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-179240009.7578424</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4198.9596</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-179244208.7174424</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F143" t="n">
+        <v>102967.7547</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-179141240.9627424</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21800</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-179141240.9627424</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F145" t="n">
+        <v>49947.2567</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-179191188.2194424</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F146" t="n">
+        <v>97012.38189999999</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-179191188.2194424</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F147" t="n">
+        <v>629387.0777</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-178561801.1417424</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F148" t="n">
+        <v>73880</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-178561801.1417424</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F149" t="n">
+        <v>21380.7407</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-178561801.1417424</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F150" t="n">
+        <v>144482</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-178417319.1417424</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="C140" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E140" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="F140" t="n">
-        <v>81030.7583</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-179691652.7578424</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C141" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D141" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="E141" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F141" t="n">
-        <v>451643</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-179240009.7578424</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="C142" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D142" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E142" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F142" t="n">
-        <v>4198.9596</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-179244208.7174424</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="C143" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="E143" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F143" t="n">
-        <v>102967.7547</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-179141240.9627424</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="C144" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D144" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="E144" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="F144" t="n">
-        <v>21800</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-179141240.9627424</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="C145" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D145" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E145" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F145" t="n">
-        <v>49947.2567</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-179191188.2194424</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D146" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E146" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="F146" t="n">
-        <v>97012.38189999999</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-179191188.2194424</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="C147" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D147" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="E147" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="F147" t="n">
-        <v>629387.0777</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-178561801.1417424</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="C148" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D148" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="E148" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="F148" t="n">
-        <v>73880</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-178561801.1417424</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="C149" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D149" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="E149" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="F149" t="n">
-        <v>21380.7407</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-178561801.1417424</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="C150" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="D150" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="E150" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="F150" t="n">
-        <v>144482</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-178417319.1417424</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5434,7 +5374,7 @@
         <v>-178417319.1417424</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>2.74</v>
@@ -5473,9 +5413,11 @@
         <v>-176399635.5472424</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2.74</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -5510,9 +5452,11 @@
         <v>-176184017.5007812</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2.81</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -5584,11 +5528,9 @@
         <v>-173665571.1408424</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>2.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -5623,11 +5565,9 @@
         <v>-171595579.0307424</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -5662,11 +5602,9 @@
         <v>-171626469.0307424</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>2.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -5701,11 +5639,9 @@
         <v>-171798410.8110424</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>2.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -5740,11 +5676,9 @@
         <v>-171798410.8110424</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>2.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -5779,7 +5713,7 @@
         <v>-171810966.4476424</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>2.84</v>
@@ -5818,7 +5752,7 @@
         <v>-171811897.4353424</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>2.83</v>
@@ -5857,7 +5791,7 @@
         <v>-171806511.2899424</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>2.74</v>
@@ -5896,7 +5830,7 @@
         <v>-171649311.2899424</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>2.81</v>
@@ -5935,7 +5869,7 @@
         <v>-170581095.8472424</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>2.86</v>
@@ -5974,11 +5908,9 @@
         <v>-162869382.8395424</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>2.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6013,11 +5945,9 @@
         <v>-161548057.4305951</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>2.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6163,16 +6093,18 @@
         <v>-160090957.7584424</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
       <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -6198,11 +6130,15 @@
         <v>-163913085.9691424</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6231,11 +6167,15 @@
         <v>-161972557.2946641</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6208,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6301,7 +6245,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6330,11 +6278,15 @@
         <v>-162516898.8029641</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6363,11 +6315,17 @@
         <v>-161565806.5541431</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.07</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6396,11 +6354,17 @@
         <v>-160232877.6956431</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6429,11 +6393,15 @@
         <v>-160232877.6956431</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6462,11 +6430,15 @@
         <v>-160232877.6956431</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6495,11 +6467,15 @@
         <v>-160805650.4136431</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6528,11 +6504,17 @@
         <v>-160805650.4136431</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6561,11 +6543,17 @@
         <v>-160634171.7804044</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6594,11 +6582,17 @@
         <v>-160793157.7206044</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3.13</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6627,11 +6621,17 @@
         <v>-159867660.0286903</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2.99</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6660,11 +6660,17 @@
         <v>-161454694.0536762</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6693,11 +6699,17 @@
         <v>-160719655.4081762</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3.06</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +6738,17 @@
         <v>-159921844.0748762</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3.09</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6759,11 +6777,17 @@
         <v>-153759832.6860709</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3.14</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6792,11 +6816,17 @@
         <v>-157438493.560771</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3.2</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6825,11 +6855,17 @@
         <v>-157438493.560771</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3.19</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6858,11 +6894,17 @@
         <v>-157766011.978671</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>3.19</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6891,11 +6933,17 @@
         <v>-157690278.524871</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3.15</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6924,11 +6972,17 @@
         <v>-157690278.524871</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3.17</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6957,11 +7011,17 @@
         <v>-157690278.524871</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3.17</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6990,11 +7050,17 @@
         <v>-155516446.224471</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>3.17</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7023,11 +7089,17 @@
         <v>-153613475.482571</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>3.19</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7060,7 +7132,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7093,7 +7169,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7126,7 +7206,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7159,7 +7243,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7192,7 +7280,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7225,7 +7317,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7258,7 +7354,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7291,7 +7391,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7324,7 +7428,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7357,7 +7465,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7390,7 +7502,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +7539,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7456,7 +7576,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7489,7 +7613,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7522,7 +7650,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7555,7 +7687,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7588,7 +7724,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7621,7 +7761,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7654,7 +7798,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7687,7 +7835,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7720,7 +7872,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7753,7 +7909,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7786,7 +7946,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7819,7 +7983,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7852,7 +8020,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7885,7 +8057,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7914,14 +8090,16 @@
         <v>-146365032.4546474</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
@@ -7947,7 +8125,7 @@
         <v>-146365032.4546474</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7980,7 +8158,7 @@
         <v>-146536100.3385473</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8013,7 +8191,7 @@
         <v>-146536100.3385473</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8046,7 +8224,7 @@
         <v>-146281470.4664474</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8079,7 +8257,7 @@
         <v>-147107017.0006474</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8112,7 +8290,7 @@
         <v>-147107017.0006474</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8145,7 +8323,7 @@
         <v>-147107017.0006474</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8178,7 +8356,7 @@
         <v>-147471262.9080474</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8211,7 +8389,7 @@
         <v>-147471262.9080474</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8244,7 +8422,7 @@
         <v>-147471262.9080474</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8277,7 +8455,7 @@
         <v>-147192477.8072474</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8310,7 +8488,7 @@
         <v>-147817272.3875474</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8343,7 +8521,7 @@
         <v>-147783626.6462474</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8376,7 +8554,7 @@
         <v>-148298158.1574474</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8409,7 +8587,7 @@
         <v>-147640415.9088474</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8442,7 +8620,7 @@
         <v>-147562058.2194474</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8475,7 +8653,7 @@
         <v>-148034959.9971474</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8508,7 +8686,7 @@
         <v>-148007949.7260474</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8541,7 +8719,7 @@
         <v>-147028160.8716474</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8574,7 +8752,7 @@
         <v>-147467411.2770474</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8607,7 +8785,7 @@
         <v>-147150789.4228474</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8640,7 +8818,7 @@
         <v>-147090693.5400474</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8673,7 +8851,7 @@
         <v>-147090693.5400474</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8706,7 +8884,7 @@
         <v>-147095493.5400474</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8739,7 +8917,7 @@
         <v>-147095493.5400474</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8772,7 +8950,7 @@
         <v>-147095493.5400474</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8805,7 +8983,7 @@
         <v>-147148908.7232474</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8838,7 +9016,7 @@
         <v>-147148908.7232474</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8904,7 +9082,7 @@
         <v>-146928708.7232474</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9069,7 +9247,7 @@
         <v>-147010819.4273474</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9135,7 +9313,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9168,7 +9346,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9333,7 +9511,7 @@
         <v>-146512167.1808726</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9465,7 +9643,7 @@
         <v>-146880446.3531474</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9498,7 +9676,7 @@
         <v>-146889035.9757474</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9531,7 +9709,7 @@
         <v>-146925185.9757474</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9729,7 +9907,7 @@
         <v>-144844729.3233474</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -14811,7 +14989,7 @@
         <v>-154440371.7231918</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14844,7 +15022,7 @@
         <v>-154436371.7231918</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15108,7 +15286,7 @@
         <v>-153890308.0779895</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15141,7 +15319,7 @@
         <v>-153890308.0779895</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15174,7 +15352,7 @@
         <v>-153653684.7402894</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15207,7 +15385,7 @@
         <v>-153680529.5710894</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15240,7 +15418,7 @@
         <v>-153679543.4783894</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15273,7 +15451,7 @@
         <v>-153994481.2967894</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15339,7 +15517,7 @@
         <v>-154210868.5489894</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15372,7 +15550,7 @@
         <v>-154079371.2589895</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15438,7 +15616,7 @@
         <v>-154750877.6509894</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15471,7 +15649,7 @@
         <v>-154750877.6509894</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15504,7 +15682,7 @@
         <v>-155022795.7651894</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15537,7 +15715,7 @@
         <v>-155368017.7651894</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15570,7 +15748,7 @@
         <v>-155321515.0470894</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15603,7 +15781,7 @@
         <v>-155430245.9813894</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15636,7 +15814,7 @@
         <v>-155183981.9813894</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17517,7 +17695,7 @@
         <v>-153345498.2240376</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18639,11 +18817,17 @@
         <v>-156183907.2261375</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>2.84</v>
+      </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18672,11 +18856,17 @@
         <v>-155694194.6385375</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>2.83</v>
+      </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18705,11 +18895,17 @@
         <v>-155733649.4128375</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>2.84</v>
+      </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18738,11 +18934,17 @@
         <v>-155733649.4128375</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>2.82</v>
+      </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18771,11 +18973,17 @@
         <v>-158630834.2694375</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>2.82</v>
+      </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18804,11 +19012,17 @@
         <v>-158630834.2694375</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18837,11 +19051,17 @@
         <v>-158625060.2067375</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18870,11 +19090,17 @@
         <v>-158554138.5217375</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>2.79</v>
+      </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18903,11 +19129,17 @@
         <v>-158631952.1417375</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18936,11 +19168,17 @@
         <v>-158791665.2163375</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>2.79</v>
+      </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18969,11 +19207,17 @@
         <v>-159051717.8303375</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19002,11 +19246,17 @@
         <v>-159029485.8303375</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>2.77</v>
+      </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19035,11 +19285,17 @@
         <v>-159029485.8303375</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19068,11 +19324,17 @@
         <v>-159392247.0949375</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19101,11 +19363,17 @@
         <v>-159310703.0712375</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>2.76</v>
+      </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19134,11 +19402,17 @@
         <v>-159310703.0712375</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>2.79</v>
+      </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19167,11 +19441,17 @@
         <v>-159310703.0712375</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>2.79</v>
+      </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19200,17 +19480,23 @@
         <v>-159268455.2295375</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>2.79</v>
+      </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
       <c r="M565" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-16 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5335,17 +5335,11 @@
         <v>-178417319.1417424</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5374,17 +5368,11 @@
         <v>-178417319.1417424</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>2.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5413,17 +5401,11 @@
         <v>-176399635.5472424</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>2.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5452,17 +5434,11 @@
         <v>-176184017.5007812</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5495,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5532,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5569,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5602,15 +5566,11 @@
         <v>-171626469.0307424</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5639,15 +5599,11 @@
         <v>-171798410.8110424</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5676,15 +5632,11 @@
         <v>-171798410.8110424</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5713,17 +5665,11 @@
         <v>-171810966.4476424</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>2.84</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5752,17 +5698,11 @@
         <v>-171811897.4353424</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>2.83</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5791,17 +5731,11 @@
         <v>-171806511.2899424</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>2.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5830,17 +5764,11 @@
         <v>-171649311.2899424</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5869,17 +5797,11 @@
         <v>-170581095.8472424</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>2.86</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5908,15 +5830,11 @@
         <v>-162869382.8395424</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5945,15 +5863,11 @@
         <v>-161548057.4305951</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5982,15 +5896,11 @@
         <v>-160694374.3455978</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6019,15 +5929,11 @@
         <v>-157591815.1069424</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6060,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6134,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6171,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6208,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6245,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6315,17 +6193,11 @@
         <v>-161565806.5541431</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6354,17 +6226,11 @@
         <v>-160232877.6956431</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6397,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6434,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6471,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6504,17 +6358,11 @@
         <v>-160805650.4136431</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6543,17 +6391,11 @@
         <v>-160634171.7804044</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6582,17 +6424,11 @@
         <v>-160793157.7206044</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>3.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6621,17 +6457,11 @@
         <v>-159867660.0286903</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>2.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6660,17 +6490,11 @@
         <v>-161454694.0536762</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>3.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6699,17 +6523,11 @@
         <v>-160719655.4081762</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6738,17 +6556,11 @@
         <v>-159921844.0748762</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6777,17 +6589,11 @@
         <v>-153759832.6860709</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6816,17 +6622,11 @@
         <v>-157438493.560771</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6855,17 +6655,11 @@
         <v>-157438493.560771</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6894,17 +6688,11 @@
         <v>-157766011.978671</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6933,17 +6721,11 @@
         <v>-157690278.524871</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6972,17 +6754,11 @@
         <v>-157690278.524871</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7011,17 +6787,11 @@
         <v>-157690278.524871</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7050,17 +6820,11 @@
         <v>-155516446.224471</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7089,17 +6853,11 @@
         <v>-153613475.482571</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7132,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7169,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7206,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7243,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7280,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7317,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7354,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7391,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7428,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7465,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7502,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7539,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7576,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7613,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7650,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7687,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7724,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7761,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7798,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7835,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7872,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7946,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7983,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8020,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8057,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8090,16 +7744,14 @@
         <v>-146365032.4546474</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
       <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
@@ -8125,7 +7777,7 @@
         <v>-146365032.4546474</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8158,7 +7810,7 @@
         <v>-146536100.3385473</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8191,7 +7843,7 @@
         <v>-146536100.3385473</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8224,7 +7876,7 @@
         <v>-146281470.4664474</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8257,7 +7909,7 @@
         <v>-147107017.0006474</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8290,7 +7942,7 @@
         <v>-147107017.0006474</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8323,7 +7975,7 @@
         <v>-147107017.0006474</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8356,7 +8008,7 @@
         <v>-147471262.9080474</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8389,7 +8041,7 @@
         <v>-147471262.9080474</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8422,7 +8074,7 @@
         <v>-147471262.9080474</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8455,7 +8107,7 @@
         <v>-147192477.8072474</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8488,7 +8140,7 @@
         <v>-147817272.3875474</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8521,7 +8173,7 @@
         <v>-147783626.6462474</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8554,7 +8206,7 @@
         <v>-148298158.1574474</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8587,7 +8239,7 @@
         <v>-147640415.9088474</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8620,7 +8272,7 @@
         <v>-147562058.2194474</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8653,7 +8305,7 @@
         <v>-148034959.9971474</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8686,7 +8338,7 @@
         <v>-148007949.7260474</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8719,7 +8371,7 @@
         <v>-147028160.8716474</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8752,7 +8404,7 @@
         <v>-147467411.2770474</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8785,7 +8437,7 @@
         <v>-147150789.4228474</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8818,7 +8470,7 @@
         <v>-147090693.5400474</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8851,7 +8503,7 @@
         <v>-147090693.5400474</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8884,7 +8536,7 @@
         <v>-147095493.5400474</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8917,7 +8569,7 @@
         <v>-147095493.5400474</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8950,7 +8602,7 @@
         <v>-147095493.5400474</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8983,7 +8635,7 @@
         <v>-147148908.7232474</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9016,7 +8668,7 @@
         <v>-147148908.7232474</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9082,7 +8734,7 @@
         <v>-146928708.7232474</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9247,7 +8899,7 @@
         <v>-147010819.4273474</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9313,7 +8965,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9346,7 +8998,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9511,7 +9163,7 @@
         <v>-146512167.1808726</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9643,7 +9295,7 @@
         <v>-146880446.3531474</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9676,7 +9328,7 @@
         <v>-146889035.9757474</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9709,7 +9361,7 @@
         <v>-146925185.9757474</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9907,7 +9559,7 @@
         <v>-144844729.3233474</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -17926,7 +17578,7 @@
         <v>-154501548.7180376</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18553,7 +18205,7 @@
         <v>-154576767.6184376</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18586,7 +18238,7 @@
         <v>-154576767.6184376</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18619,7 +18271,7 @@
         <v>-154576767.6184376</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18652,7 +18304,7 @@
         <v>-155523339.5806375</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18685,7 +18337,7 @@
         <v>-155523339.5806375</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18718,7 +18370,7 @@
         <v>-155727079.9302375</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18817,17 +18469,11 @@
         <v>-156183907.2261375</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>2.84</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18856,17 +18502,11 @@
         <v>-155694194.6385375</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>2.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18895,17 +18535,11 @@
         <v>-155733649.4128375</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>2.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18934,17 +18568,11 @@
         <v>-155733649.4128375</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>2.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18973,17 +18601,11 @@
         <v>-158630834.2694375</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>2.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19012,17 +18634,11 @@
         <v>-158630834.2694375</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>2.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19051,17 +18667,11 @@
         <v>-158625060.2067375</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>2.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19090,17 +18700,11 @@
         <v>-158554138.5217375</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>2.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19129,17 +18733,11 @@
         <v>-158631952.1417375</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19168,17 +18766,11 @@
         <v>-158791665.2163375</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>2.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19207,17 +18799,11 @@
         <v>-159051717.8303375</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>2.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19246,17 +18832,11 @@
         <v>-159029485.8303375</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>2.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19285,17 +18865,11 @@
         <v>-159029485.8303375</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>2.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19332,7 +18906,7 @@
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L561" t="n">
@@ -19497,6 +19071,6 @@
       <c r="M565" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-16 BackTest ANKR.xlsx
@@ -4807,10 +4807,14 @@
         <v>-179435535.7505424</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.63</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
@@ -4840,11 +4844,19 @@
         <v>-179435535.7505424</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4885,19 @@
         <v>-179970235.7505424</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,10 +4926,14 @@
         <v>-179851249.9235424</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.63</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
@@ -4939,11 +4963,19 @@
         <v>-179851249.9235424</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5004,19 @@
         <v>-179691652.7578424</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5045,19 @@
         <v>-179691652.7578424</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5086,19 @@
         <v>-179240009.7578424</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5127,19 @@
         <v>-179244208.7174424</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5168,19 @@
         <v>-179141240.9627424</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5209,19 @@
         <v>-179141240.9627424</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5250,19 @@
         <v>-179191188.2194424</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5291,19 @@
         <v>-179191188.2194424</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5332,19 @@
         <v>-178561801.1417424</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5373,19 @@
         <v>-178561801.1417424</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5414,19 @@
         <v>-178561801.1417424</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5455,19 @@
         <v>-178417319.1417424</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5496,19 @@
         <v>-178417319.1417424</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5537,19 @@
         <v>-176399635.5472424</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5581,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5620,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5659,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5698,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5734,17 @@
         <v>-171626469.0307424</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5773,17 @@
         <v>-171798410.8110424</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5812,17 @@
         <v>-171798410.8110424</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5851,17 @@
         <v>-171810966.4476424</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5890,17 @@
         <v>-171811897.4353424</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5932,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +5971,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6007,17 @@
         <v>-170581095.8472424</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6046,17 @@
         <v>-162869382.8395424</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6085,17 @@
         <v>-161548057.4305951</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6124,17 @@
         <v>-160694374.3455978</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,12 +6166,20 @@
         <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>1.204125475285171</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.03041825095057</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5962,7 +6204,7 @@
         <v>-159220255.4221424</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +6237,7 @@
         <v>-160090957.7584424</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6270,7 @@
         <v>-163913085.9691424</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6303,7 @@
         <v>-161972557.2946641</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6127,7 +6369,7 @@
         <v>-162188247.8879641</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6402,7 @@
         <v>-162516898.8029641</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6435,7 @@
         <v>-161565806.5541431</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6259,7 +6501,7 @@
         <v>-160232877.6956431</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6534,7 @@
         <v>-160232877.6956431</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6567,7 @@
         <v>-160805650.4136431</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6600,7 @@
         <v>-160805650.4136431</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6655,7 +6897,7 @@
         <v>-157438493.560771</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6853,7 +7095,7 @@
         <v>-153613475.482571</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +7128,7 @@
         <v>-152494590.399471</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +7161,7 @@
         <v>-152494590.399471</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +7194,7 @@
         <v>-151881476.4947474</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +7227,7 @@
         <v>-152453258.3355474</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7117,7 +7359,7 @@
         <v>-151426858.4051474</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7392,7 @@
         <v>-151754057.7430474</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7425,7 @@
         <v>-152284006.9754474</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7282,7 +7524,7 @@
         <v>-154640253.0822474</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7557,7 @@
         <v>-155542601.2837474</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7711,7 +7953,7 @@
         <v>-145859218.8819474</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7986,7 @@
         <v>-146365032.4546474</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +8019,7 @@
         <v>-146365032.4546474</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +8052,7 @@
         <v>-146536100.3385473</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +8085,7 @@
         <v>-146536100.3385473</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +8118,7 @@
         <v>-146281470.4664474</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +8151,7 @@
         <v>-147107017.0006474</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +8184,7 @@
         <v>-147107017.0006474</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +8217,7 @@
         <v>-147107017.0006474</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8250,7 @@
         <v>-147471262.9080474</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8283,7 @@
         <v>-147471262.9080474</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8107,7 +8349,7 @@
         <v>-147192477.8072474</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8382,7 @@
         <v>-147817272.3875474</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8206,7 +8448,7 @@
         <v>-148298158.1574474</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8481,7 @@
         <v>-147640415.9088474</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8514,7 @@
         <v>-147562058.2194474</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8547,7 @@
         <v>-148034959.9971474</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8580,7 @@
         <v>-148007949.7260474</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8613,7 @@
         <v>-147028160.8716474</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8646,7 @@
         <v>-147467411.2770474</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8679,7 @@
         <v>-147150789.4228474</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8712,7 @@
         <v>-147090693.5400474</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8745,7 @@
         <v>-147090693.5400474</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8778,7 @@
         <v>-147095493.5400474</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8811,7 @@
         <v>-147095493.5400474</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8844,7 @@
         <v>-147095493.5400474</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8877,7 @@
         <v>-147148908.7232474</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8910,7 @@
         <v>-147148908.7232474</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8943,7 @@
         <v>-146928708.7232474</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8976,7 @@
         <v>-146928708.7232474</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +9009,7 @@
         <v>-146741296.7232474</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +9042,7 @@
         <v>-146741296.7232474</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +9075,7 @@
         <v>-146746411.3459474</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +9108,7 @@
         <v>-146756840.5913474</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +9141,7 @@
         <v>-147010819.4273474</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +9174,7 @@
         <v>-146499576.3753474</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +9207,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +9240,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9273,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9306,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9339,7 @@
         <v>-146512167.1808726</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9372,7 @@
         <v>-146512167.1808726</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9405,7 @@
         <v>-146512167.1808726</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9438,7 @@
         <v>-146984262.7898726</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9471,7 @@
         <v>-146984262.7898726</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9504,7 @@
         <v>-146730446.3531474</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9537,7 @@
         <v>-146880446.3531474</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9570,7 @@
         <v>-146889035.9757474</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9603,7 @@
         <v>-146925185.9757474</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9636,7 @@
         <v>-146925185.9757474</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9669,7 @@
         <v>-147096305.5719474</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9702,7 @@
         <v>-144692474.8979474</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9735,7 @@
         <v>-144692474.8979474</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9768,7 @@
         <v>-144686597.5395474</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9801,7 @@
         <v>-144844729.3233474</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9834,7 @@
         <v>-144913599.3233474</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9867,7 @@
         <v>-144913599.3233474</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9900,7 @@
         <v>-144756751.5047474</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9933,7 @@
         <v>-144850610.0722474</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9966,7 @@
         <v>-144850610.0722474</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9999,7 @@
         <v>-145087318.0722474</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +10032,7 @@
         <v>-145265020.8528474</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +10065,7 @@
         <v>-145066103.8807474</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +10098,7 @@
         <v>-146008999.4502474</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +10131,7 @@
         <v>-145983060.5005474</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +10164,7 @@
         <v>-145983060.5005474</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +10197,7 @@
         <v>-145929625.8513474</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +10230,7 @@
         <v>-145584538.4156474</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10263,7 @@
         <v>-145584538.4156474</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10296,7 @@
         <v>-145584538.4156474</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10329,7 @@
         <v>-146163650.1187474</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10362,7 @@
         <v>-146163650.1187474</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10395,7 @@
         <v>-145663672.2720474</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10428,7 @@
         <v>-145933727.5302474</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10461,7 @@
         <v>-145933227.5302474</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10494,7 @@
         <v>-146018358.6495474</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10527,7 @@
         <v>-145999501.7417474</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10560,7 @@
         <v>-145999050.9935474</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10593,7 @@
         <v>-147238597.3390474</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10626,7 @@
         <v>-147238597.3390474</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10659,7 @@
         <v>-147238597.3390474</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10692,7 @@
         <v>-147238597.3390474</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10725,7 @@
         <v>-147238597.3390474</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10758,7 @@
         <v>-147414766.0370474</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10791,7 @@
         <v>-150297050.3355474</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10824,7 @@
         <v>-150297050.3355474</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10681,7 +10923,7 @@
         <v>-150627442.7866474</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10747,7 +10989,7 @@
         <v>-150599044.2478474</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +11022,7 @@
         <v>-150599044.2478474</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +11055,7 @@
         <v>-150498300.6163474</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +11088,7 @@
         <v>-151089893.1879474</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +11121,7 @@
         <v>-151067268.9333474</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +11154,7 @@
         <v>-151214795.4441474</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11110,7 +11352,7 @@
         <v>-151983507.6153474</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11440,7 +11682,7 @@
         <v>-152780088.7585475</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11715,7 @@
         <v>-152780088.7585475</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11748,7 @@
         <v>-152686949.5117474</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11781,7 @@
         <v>-152758747.1950474</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11814,7 @@
         <v>-152758747.1950474</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11847,7 @@
         <v>-152988698.1911474</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11968,7 +12210,7 @@
         <v>-153457151.7221474</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12034,7 +12276,7 @@
         <v>-153463802.1450475</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12100,7 +12342,7 @@
         <v>-153463792.1450475</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12375,7 @@
         <v>-153463792.1450475</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12408,7 @@
         <v>-153463792.1450475</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12441,7 @@
         <v>-153453320.7841474</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12474,7 @@
         <v>-153453320.7841474</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12507,7 @@
         <v>-153453320.7841474</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12540,7 @@
         <v>-153453320.7841474</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12573,7 @@
         <v>-153453320.7841474</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12606,7 @@
         <v>-153453320.7841474</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12639,7 @@
         <v>-153467150.7841474</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12672,7 @@
         <v>-153685125.6692474</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12628,7 +12870,7 @@
         <v>-153717725.9707474</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12903,7 @@
         <v>-153711632.2108474</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12936,7 @@
         <v>-153711632.2108474</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12969,7 @@
         <v>-153711632.2108474</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +13002,7 @@
         <v>-153711632.2108474</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +13035,7 @@
         <v>-153711632.2108474</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +13068,7 @@
         <v>-153888643.6791475</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +13101,7 @@
         <v>-153994825.0654474</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +13134,7 @@
         <v>-154007218.8257475</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +13167,7 @@
         <v>-153978344.8662474</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +13200,7 @@
         <v>-153978344.8662474</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +13233,7 @@
         <v>-153978344.8662474</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13266,7 @@
         <v>-153832158.9696474</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13299,7 @@
         <v>-153930126.8581474</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13332,7 @@
         <v>-153100456.7654474</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13156,7 +13398,7 @@
         <v>-153163405.0405474</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13288,7 +13530,7 @@
         <v>-153425407.4108474</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13563,7 @@
         <v>-153405942.8169474</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13596,7 @@
         <v>-153607089.6177474</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13629,7 @@
         <v>-153232966.0285474</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13662,7 @@
         <v>-153237126.4517474</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13695,7 @@
         <v>-153231176.4186474</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13728,7 @@
         <v>-153231176.4186474</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13761,7 @@
         <v>-153231194.4186474</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13915,7 +14157,7 @@
         <v>-153843262.6640918</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +14190,7 @@
         <v>-153843245.1723918</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +14223,7 @@
         <v>-153879395.1723918</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14256,7 @@
         <v>-153843245.1723918</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14311,7 +14553,7 @@
         <v>-153493649.8413918</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14410,7 +14652,7 @@
         <v>-153425536.3511918</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14685,7 @@
         <v>-153425536.3511918</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14718,7 @@
         <v>-153336947.3511918</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14751,7 @@
         <v>-153336947.3511918</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14784,7 @@
         <v>-153336947.3511918</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14817,7 @@
         <v>-154503772.4470918</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14850,7 @@
         <v>-154280599.7231918</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14883,7 @@
         <v>-154440371.7231918</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14916,7 @@
         <v>-154436371.7231918</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14949,7 @@
         <v>-154450491.8980918</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14982,7 @@
         <v>-154436491.8980918</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +15015,7 @@
         <v>-154436491.8980918</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +15048,7 @@
         <v>-154281464.5640894</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +15081,7 @@
         <v>-154846900.7009895</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +15114,7 @@
         <v>-153910308.0779895</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +15147,7 @@
         <v>-153890308.0779895</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +15180,7 @@
         <v>-153890308.0779895</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +15213,7 @@
         <v>-153890308.0779895</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15246,7 @@
         <v>-153653684.7402894</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15279,7 @@
         <v>-153680529.5710894</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15312,7 @@
         <v>-153679543.4783894</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15345,7 @@
         <v>-153994481.2967894</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15378,7 @@
         <v>-153721591.0205894</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15411,7 @@
         <v>-154210868.5489894</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15444,7 @@
         <v>-154079371.2589895</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15477,7 @@
         <v>-154079371.2589895</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15510,7 @@
         <v>-154750877.6509894</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15543,7 @@
         <v>-154750877.6509894</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15576,7 @@
         <v>-155022795.7651894</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15609,7 @@
         <v>-155368017.7651894</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15642,7 @@
         <v>-155321515.0470894</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15675,7 @@
         <v>-155430245.9813894</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15708,7 @@
         <v>-155183981.9813894</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15741,7 @@
         <v>-155043945.0288376</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15774,7 @@
         <v>-155192932.3833376</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15807,7 @@
         <v>-155192932.3833376</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15840,7 @@
         <v>-155646240.7639376</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15873,7 @@
         <v>-156087508.2461376</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15906,7 @@
         <v>-156056258.4652376</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15939,7 @@
         <v>-156056258.4652376</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15972,7 @@
         <v>-156356258.4652376</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +16005,7 @@
         <v>-156356258.4652376</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +16038,7 @@
         <v>-155992818.5324376</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +16071,7 @@
         <v>-155992818.5324376</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +16104,7 @@
         <v>-156777418.5324376</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +16137,7 @@
         <v>-156740655.0735376</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +16170,7 @@
         <v>-156822641.8663376</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +16203,7 @@
         <v>-156880671.4288376</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16159,7 +16401,7 @@
         <v>-156677375.2377376</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16258,7 +16500,7 @@
         <v>-156687375.2377376</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17215,7 +17457,7 @@
         <v>-157571323.1382376</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17490,7 @@
         <v>-156980506.8917376</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17523,7 @@
         <v>-152992543.1428376</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17556,7 @@
         <v>-153279272.4330376</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17589,7 @@
         <v>-153345498.2240376</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17622,7 @@
         <v>-153362391.9793376</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17655,7 @@
         <v>-153434158.8212376</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17611,7 +17853,7 @@
         <v>-154501548.7180376</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17809,7 +18051,7 @@
         <v>-154564495.4090376</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17941,7 +18183,7 @@
         <v>-154564181.0276376</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +18216,7 @@
         <v>-154564181.0276376</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18249,7 @@
         <v>-154564181.0276376</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18282,7 @@
         <v>-154564181.0276376</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18315,7 @@
         <v>-154564181.0276376</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18139,7 +18381,7 @@
         <v>-154564181.0276376</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18414,7 @@
         <v>-154544181.0276376</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18271,7 +18513,7 @@
         <v>-154576767.6184376</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18546,7 @@
         <v>-155523339.5806375</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18579,7 @@
         <v>-155523339.5806375</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18612,7 @@
         <v>-155727079.9302375</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18469,7 +18711,7 @@
         <v>-156183907.2261375</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18898,17 +19140,11 @@
         <v>-159392247.0949375</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>2.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18937,17 +19173,11 @@
         <v>-159310703.0712375</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>2.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18976,17 +19206,11 @@
         <v>-159310703.0712375</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>2.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19015,17 +19239,11 @@
         <v>-159310703.0712375</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>2.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19054,17 +19272,11 @@
         <v>-159268455.2295375</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>2.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
